--- a/MyRhythm.xlsx
+++ b/MyRhythm.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20350"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\research\NowORNever1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E679A9C6-4D76-4049-A347-24DD2F38C333}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0904A5E4-5A3B-4CCC-9FCA-FD76482502BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="1" xr2:uid="{30C03C2A-C2A3-435E-A63D-0E3D6B1ED658}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{30C03C2A-C2A3-435E-A63D-0E3D6B1ED658}"/>
   </bookViews>
   <sheets>
-    <sheet name="weeklyPlanModel" sheetId="1" r:id="rId1"/>
-    <sheet name="MonthlyPlanModel" sheetId="2" r:id="rId2"/>
+    <sheet name="thisWeek" sheetId="4" r:id="rId1"/>
+    <sheet name="july" sheetId="3" r:id="rId2"/>
+    <sheet name="weeklyPlanModel" sheetId="1" r:id="rId3"/>
+    <sheet name="MonthlyPlanModel" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="98">
   <si>
     <t>Monday</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,13 +51,371 @@
   </si>
   <si>
     <t>Sunday</t>
+  </si>
+  <si>
+    <t>上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOEFL exam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年7月5日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年7月6日</t>
+  </si>
+  <si>
+    <t>2021年7月7日</t>
+  </si>
+  <si>
+    <t>2021年7月8日</t>
+  </si>
+  <si>
+    <t>2021年7月9日</t>
+  </si>
+  <si>
+    <t>2021年7月10日</t>
+  </si>
+  <si>
+    <t>2021年7月11日</t>
+  </si>
+  <si>
+    <t>2021年7月12日</t>
+  </si>
+  <si>
+    <t>2021年7月13日</t>
+  </si>
+  <si>
+    <t>2021年7月14日</t>
+  </si>
+  <si>
+    <t>2021年7月15日</t>
+  </si>
+  <si>
+    <t>2021年7月16日</t>
+  </si>
+  <si>
+    <t>2021年7月17日</t>
+  </si>
+  <si>
+    <t>2021年7月18日</t>
+  </si>
+  <si>
+    <t>2021年7月19日</t>
+  </si>
+  <si>
+    <t>2021年7月20日</t>
+  </si>
+  <si>
+    <t>2021年7月21日</t>
+  </si>
+  <si>
+    <t>2021年7月22日</t>
+  </si>
+  <si>
+    <t>2021年7月23日</t>
+  </si>
+  <si>
+    <t>2021年7月24日</t>
+  </si>
+  <si>
+    <t>2021年7月25日</t>
+  </si>
+  <si>
+    <t>2021年7月26日</t>
+  </si>
+  <si>
+    <t>2021年7月27日</t>
+  </si>
+  <si>
+    <t>2021年7月28日</t>
+  </si>
+  <si>
+    <t>2021年7月29日</t>
+  </si>
+  <si>
+    <t>2021年7月30日</t>
+  </si>
+  <si>
+    <t>2021年7月31日</t>
+  </si>
+  <si>
+    <t>go back to university</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have a academic 
+ruminate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nucleic acid testing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meeting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toefl test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mock exam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>real exam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核酸检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bm会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日待办</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听力练习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读练习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口语练习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写作练习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专项突破</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reading break</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exercise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锻炼身体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准时睡觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>report for the topic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complete tech verificatoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recitation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reading break</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oral practice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bayi restaurant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>listening break</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review the experience</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rearrange the plan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review the exam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>practice listening</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sleep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>play basketball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hang out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习英语中的特指和泛指
+learn the range of academic classes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recite the logic voc and voc itself</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search some methods for listening</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exercise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">practice listening
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ensure the material required to recite at last</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eat with Maregul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">reading and some orl practice </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prepare for sleep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meeting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review the exam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have dinner with family</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sleep and read and listen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>go to the station</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>know my way around</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>practice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">read materials </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>say goodbye to maregul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>follow the keep scheme</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review the experience</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have a meal 
+find a way to the university+buy a bread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reading material before exam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pack and oral model practice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.model of composition and oral speaking
+2.voc and sentences in the "improvement of reading"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +428,24 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -98,7 +476,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -147,45 +525,187 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -500,11 +1020,1005 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B3F5F0-233C-4435-BE62-4C6296F9AB6F}">
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13:G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="20">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B2" s="20">
+        <v>0.375</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="20">
+        <v>0.375</v>
+      </c>
+      <c r="B3" s="20">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="28"/>
+      <c r="H3" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="28"/>
+      <c r="J3" s="18"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="20">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B4" s="20">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="28"/>
+      <c r="F4" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="28"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="18"/>
+      <c r="M4" s="14">
+        <v>1</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="20">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B5" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="28"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" s="28"/>
+      <c r="J5" s="18"/>
+      <c r="M5" s="14">
+        <v>2</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="B6" s="21">
+        <v>0.54166666666666596</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="29"/>
+      <c r="F6" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="29"/>
+      <c r="H6" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" s="29"/>
+      <c r="J6" s="16"/>
+      <c r="M6" s="14">
+        <v>3</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="22">
+        <v>0.54166666666666596</v>
+      </c>
+      <c r="B7" s="22">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="44"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="M7" s="14">
+        <v>4</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="22">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B8" s="22">
+        <v>0.625</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="M8" s="14">
+        <v>5</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="22">
+        <v>0.625</v>
+      </c>
+      <c r="B9" s="22">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="31"/>
+      <c r="H9" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="M9" s="14">
+        <v>6</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="22">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="B10" s="22">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="32"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="M10" s="14">
+        <v>7</v>
+      </c>
+      <c r="N10" s="14"/>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="22">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B11" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="M11" s="14">
+        <v>8</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A12" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="B12" s="21">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="M12" s="14">
+        <v>9</v>
+      </c>
+      <c r="N12" s="14"/>
+    </row>
+    <row r="13" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="24">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="B13" s="24">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="M13" s="14">
+        <v>10</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="24">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="B14" s="24">
+        <v>0.875</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="35"/>
+      <c r="H14" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="24">
+        <v>0.875</v>
+      </c>
+      <c r="B15" s="24">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="C15" s="34"/>
+      <c r="D15" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="N15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="60" x14ac:dyDescent="0.2">
+      <c r="A16" s="24">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="B16" s="24">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="34"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="N16" s="45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I2:I6"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD42834-D08C-4387-8855-F1CEB2D5F1BD}">
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="14.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="36"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="38"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="36"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="36"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="36"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="36"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="36"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="36"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="36"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="36"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="36"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="36"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="36"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="D19:D20"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB5F8A9-A27B-4B6D-8FE8-1AECCEA78896}">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -512,278 +2026,756 @@
     <col min="1" max="2" width="5.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
     <col min="4" max="9" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="A1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>0.375</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>0.375</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>0.45833333333333298</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>0.5</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>0.5</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <v>0.54166666666666596</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <v>0.58333333333333304</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+      <c r="A8" s="5">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="5">
         <v>0.625</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+      <c r="A9" s="5">
         <v>0.625</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="5">
         <v>0.66666666666666596</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
+      <c r="A10" s="5">
         <v>0.66666666666666596</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="5">
         <v>0.70833333333333304</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
+      <c r="A11" s="5">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="5">
         <v>0.75</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>0.75</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="4">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
+      <c r="A13" s="7">
         <v>0.79166666666666696</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="7">
         <v>0.83333333333333304</v>
       </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0.875</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>0.875</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288E6D3B-946E-493D-8D16-D1D27C2D66E5}">
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="14.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="36"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="36"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="36"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="36"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="9">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="B14" s="9">
-        <v>0.875</v>
-      </c>
+      <c r="A14" s="36"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="9">
-        <v>0.875</v>
-      </c>
-      <c r="B15" s="9">
-        <v>0.91666666666666696</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
+      <c r="A15" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="9">
-        <v>0.91666666666666696</v>
-      </c>
-      <c r="B16" s="9">
-        <v>0.95833333333333304</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="36"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="36"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="36"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="36"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="36"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="36"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+  <mergeCells count="12">
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288E6D3B-946E-493D-8D16-D1D27C2D66E5}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MyRhythm.xlsx
+++ b/MyRhythm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20374"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\research\NowORNever1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\labWork\NowORNever1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0904A5E4-5A3B-4CCC-9FCA-FD76482502BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127419AC-970B-48CA-855B-8C88489B72F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{30C03C2A-C2A3-435E-A63D-0E3D6B1ED658}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="102">
   <si>
     <t>Monday</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -408,6 +408,22 @@
   <si>
     <t>1.model of composition and oral speaking
 2.voc and sentences in the "improvement of reading"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年7月11日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone with Geng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrange plan and get access to the labMork</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>write conclusion</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -568,7 +584,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -611,37 +627,85 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -650,42 +714,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -698,13 +735,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -713,6 +756,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -732,7 +843,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1021,476 +1132,783 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B3F5F0-233C-4435-BE62-4C6296F9AB6F}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:G15"/>
+      <selection activeCell="H21" sqref="H21:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.5" customWidth="1"/>
+    <col min="1" max="2" width="5.875" style="50" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="50" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="50" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="14.625" style="50" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9" style="50"/>
+    <col min="14" max="14" width="30.5" style="50" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="25"/>
-      <c r="B1" s="26"/>
-      <c r="C1" s="16" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="20">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="51">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B3" s="51">
         <v>0.375</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="18"/>
-    </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="20">
+      <c r="C3" s="30"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="51">
         <v>0.375</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B4" s="51">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="18"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="20">
+      <c r="C4" s="31"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="51">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B5" s="51">
         <v>0.45833333333333298</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="18"/>
-      <c r="M4" s="14">
-        <v>1</v>
-      </c>
-      <c r="N4" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="20">
+      <c r="C5" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="51">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B6" s="51">
         <v>0.5</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="18"/>
-      <c r="M5" s="14">
-        <v>2</v>
-      </c>
-      <c r="N5" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="21">
+      <c r="C6" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="52">
         <v>0.5</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B7" s="52">
         <v>0.54166666666666596</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="16"/>
-      <c r="M6" s="14">
-        <v>3</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="22">
-        <v>0.54166666666666596</v>
-      </c>
-      <c r="B7" s="22">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="H7" s="44"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
-      <c r="M7" s="14">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="53">
+        <v>0.54166666666666596</v>
+      </c>
+      <c r="B8" s="53">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="53">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B9" s="53">
+        <v>0.625</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="53">
+        <v>0.625</v>
+      </c>
+      <c r="B10" s="53">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="53">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="B11" s="53">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="53">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B12" s="53">
+        <v>0.75</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="52">
+        <v>0.75</v>
+      </c>
+      <c r="B13" s="52">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="54">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="B14" s="54">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="54">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="B15" s="54">
+        <v>0.875</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="54">
+        <v>0.875</v>
+      </c>
+      <c r="B16" s="54">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="54">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="B17" s="54">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="41"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="I19" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B20" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="J20" s="16"/>
+    </row>
+    <row r="21" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="B21" s="18">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C21" s="34"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="34"/>
+      <c r="H21" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="I21" s="34"/>
+      <c r="J21" s="16"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="18">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B22" s="18">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="C22" s="34"/>
+      <c r="D22" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="34"/>
+      <c r="F22" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="34"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="16"/>
+      <c r="M22" s="29">
+        <v>1</v>
+      </c>
+      <c r="N22" s="29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="18">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B23" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="C23" s="34"/>
+      <c r="D23" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="34"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="I23" s="34"/>
+      <c r="J23" s="16"/>
+      <c r="M23" s="29">
+        <v>2</v>
+      </c>
+      <c r="N23" s="29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="B24" s="19">
+        <v>0.54166666666666596</v>
+      </c>
+      <c r="C24" s="34"/>
+      <c r="D24" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="31"/>
+      <c r="F24" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" s="31"/>
+      <c r="H24" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24" s="31"/>
+      <c r="J24" s="15"/>
+      <c r="M24" s="29">
+        <v>3</v>
+      </c>
+      <c r="N24" s="29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="20">
+        <v>0.54166666666666596</v>
+      </c>
+      <c r="B25" s="20">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C25" s="34"/>
+      <c r="D25" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25" s="40"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="M25" s="29">
+        <v>4</v>
+      </c>
+      <c r="N25" s="29" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="22">
+    <row r="26" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="20">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B26" s="20">
         <v>0.625</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="15" t="s">
+      <c r="C26" s="34"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="15" t="s">
+      <c r="F26" s="36"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="M8" s="14">
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="M26" s="29">
         <v>5</v>
       </c>
-      <c r="N8" s="14" t="s">
+      <c r="N26" s="29" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="22">
+    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="20">
         <v>0.625</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B27" s="20">
         <v>0.66666666666666596</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="30" t="s">
+      <c r="C27" s="31"/>
+      <c r="D27" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E27" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F27" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="30" t="s">
+      <c r="G27" s="36"/>
+      <c r="H27" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="M9" s="14">
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="M27" s="29">
         <v>6</v>
       </c>
-      <c r="N9" s="14" t="s">
+      <c r="N27" s="29" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="22">
+    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="20">
         <v>0.66666666666666596</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B28" s="20">
         <v>0.70833333333333304</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C28" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="30" t="s">
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="M10" s="14">
+      <c r="H28" s="37"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="M28" s="29">
         <v>7</v>
       </c>
-      <c r="N10" s="14"/>
-    </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="22">
+      <c r="N28" s="29"/>
+    </row>
+    <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="20">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B29" s="20">
         <v>0.75</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="15" t="s">
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="M11" s="14">
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="M29" s="29">
         <v>8</v>
       </c>
-      <c r="N11" s="14" t="s">
+      <c r="N29" s="29" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="57" x14ac:dyDescent="0.2">
-      <c r="A12" s="21">
+    <row r="30" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A30" s="19">
         <v>0.75</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B30" s="19">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="16" t="s">
+      <c r="C30" s="15"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F30" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16" t="s">
+      <c r="G30" s="15"/>
+      <c r="H30" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="M12" s="14">
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="M30" s="29">
         <v>9</v>
       </c>
-      <c r="N12" s="14"/>
-    </row>
-    <row r="13" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="24">
+      <c r="N30" s="29"/>
+    </row>
+    <row r="31" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="22">
         <v>0.79166666666666696</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B31" s="22">
         <v>0.83333333333333304</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C31" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D31" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E31" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F31" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G31" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="H31" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="M13" s="14">
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="M31" s="29">
         <v>10</v>
       </c>
-      <c r="N13" s="14" t="s">
+      <c r="N31" s="29" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="24">
+    <row r="32" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="22">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B32" s="22">
         <v>0.875</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C32" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="33" t="s">
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="35"/>
-      <c r="H14" s="19" t="s">
+      <c r="G32" s="38"/>
+      <c r="H32" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="24">
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="22">
         <v>0.875</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B33" s="22">
         <v>0.91666666666666696</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="16" t="s">
+      <c r="C33" s="33"/>
+      <c r="D33" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E33" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="33" t="s">
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="N15" t="s">
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="N33" s="50" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="60" x14ac:dyDescent="0.2">
-      <c r="A16" s="24">
+    <row r="34" spans="1:14" ht="60" x14ac:dyDescent="0.2">
+      <c r="A34" s="22">
         <v>0.91666666666666696</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B34" s="22">
         <v>0.95833333333333304</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C34" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D34" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E34" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F34" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G34" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="H16" s="34"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="N16" s="45" t="s">
+      <c r="H34" s="33"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="N34" s="29" t="s">
         <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I2:I6"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H9:H11"/>
+  <mergeCells count="26">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="G20:G24"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I20:I24"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="C20:C27"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G31:G33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1562,39 +1980,39 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="9"/>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="43" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="43" t="s">
         <v>42</v>
       </c>
       <c r="F3" s="9"/>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="43" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="9"/>
-      <c r="C4" s="38"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="38"/>
+      <c r="E4" s="44"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="38"/>
+      <c r="G4" s="44"/>
       <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="45" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="10"/>
@@ -1608,19 +2026,19 @@
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="35" t="s">
         <v>39</v>
       </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="45" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="11"/>
@@ -1628,17 +2046,17 @@
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="39"/>
+      <c r="G7" s="46"/>
       <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="36"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="40"/>
+      <c r="G8" s="47"/>
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1691,12 +2109,12 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="43" t="s">
         <v>60</v>
       </c>
       <c r="E11" s="9"/>
@@ -1705,17 +2123,17 @@
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="36"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="38"/>
+      <c r="D12" s="44"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="45" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="10"/>
@@ -1727,7 +2145,7 @@
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="36"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -1737,7 +2155,7 @@
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="45" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="11"/>
@@ -1749,7 +2167,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="36"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -1808,12 +2226,12 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="43" t="s">
         <v>61</v>
       </c>
       <c r="E19" s="9"/>
@@ -1822,17 +2240,17 @@
       <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="36"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="38"/>
+      <c r="D20" s="44"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="45" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="10"/>
@@ -1844,7 +2262,7 @@
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="36"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -1854,7 +2272,7 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="45" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="11"/>
@@ -1866,7 +2284,7 @@
       <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="36"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -1921,7 +2339,7 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B27" s="9"/>
@@ -1933,7 +2351,7 @@
       <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="36"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -1943,7 +2361,7 @@
       <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="45" t="s">
         <v>8</v>
       </c>
       <c r="B29" s="10"/>
@@ -1955,7 +2373,7 @@
       <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="36"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -1965,7 +2383,7 @@
       <c r="H30" s="10"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="45" t="s">
         <v>9</v>
       </c>
       <c r="B31" s="11"/>
@@ -1977,7 +2395,7 @@
       <c r="H31" s="11"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="36"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -1988,12 +2406,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="D11:D12"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="E3:E4"/>
@@ -2006,6 +2418,12 @@
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="D19:D20"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="D11:D12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2015,10 +2433,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB5F8A9-A27B-4B6D-8FE8-1AECCEA78896}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2030,8 +2448,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="41"/>
-      <c r="B1" s="42"/>
+      <c r="A1" s="48"/>
+      <c r="B1" s="49"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2055,26 +2473,22 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B3" s="2">
         <v>0.375</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.41666666666666702</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -2086,10 +2500,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="B4" s="2">
         <v>0.41666666666666702</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.45833333333333298</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -2101,10 +2515,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B5" s="2">
         <v>0.45833333333333298</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.5</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -2115,41 +2529,41 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B6" s="2">
         <v>0.5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B7" s="4">
         <v>0.54166666666666596</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>0.54166666666666596</v>
-      </c>
-      <c r="B7" s="5">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
+        <v>0.54166666666666596</v>
+      </c>
+      <c r="B8" s="5">
         <v>0.58333333333333304</v>
-      </c>
-      <c r="B8" s="5">
-        <v>0.625</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -2161,10 +2575,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B9" s="5">
         <v>0.625</v>
-      </c>
-      <c r="B9" s="5">
-        <v>0.66666666666666596</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -2176,10 +2590,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="B10" s="5">
         <v>0.66666666666666596</v>
-      </c>
-      <c r="B10" s="5">
-        <v>0.70833333333333304</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -2191,10 +2605,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="B11" s="5">
         <v>0.70833333333333304</v>
-      </c>
-      <c r="B11" s="5">
-        <v>0.75</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -2205,41 +2619,41 @@
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B12" s="5">
         <v>0.75</v>
       </c>
-      <c r="B12" s="4">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="B13" s="4">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
-        <v>0.79166666666666696</v>
-      </c>
-      <c r="B13" s="7">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="B14" s="7">
         <v>0.83333333333333304</v>
-      </c>
-      <c r="B14" s="7">
-        <v>0.875</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -2251,10 +2665,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="B15" s="7">
         <v>0.875</v>
-      </c>
-      <c r="B15" s="7">
-        <v>0.91666666666666696</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -2266,10 +2680,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
+        <v>0.875</v>
+      </c>
+      <c r="B16" s="7">
         <v>0.91666666666666696</v>
-      </c>
-      <c r="B16" s="7">
-        <v>0.95833333333333304</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -2278,6 +2692,21 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2353,7 +2782,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="9"/>
@@ -2365,7 +2794,7 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -2375,7 +2804,7 @@
       <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="45" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="10"/>
@@ -2387,7 +2816,7 @@
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -2397,7 +2826,7 @@
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="45" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="11"/>
@@ -2409,7 +2838,7 @@
       <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="36"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -2468,7 +2897,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="9"/>
@@ -2480,7 +2909,7 @@
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="36"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -2490,7 +2919,7 @@
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="45" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="10"/>
@@ -2502,7 +2931,7 @@
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="36"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -2512,7 +2941,7 @@
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="45" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="11"/>
@@ -2524,7 +2953,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="36"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -2583,7 +3012,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="9"/>
@@ -2595,7 +3024,7 @@
       <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="36"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -2605,7 +3034,7 @@
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="45" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="10"/>
@@ -2617,7 +3046,7 @@
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="36"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -2627,7 +3056,7 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="45" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="11"/>
@@ -2639,7 +3068,7 @@
       <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="36"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -2694,7 +3123,7 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B27" s="9"/>
@@ -2706,7 +3135,7 @@
       <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="36"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -2716,7 +3145,7 @@
       <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="45" t="s">
         <v>8</v>
       </c>
       <c r="B29" s="10"/>
@@ -2728,7 +3157,7 @@
       <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="36"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -2738,7 +3167,7 @@
       <c r="H30" s="10"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="45" t="s">
         <v>9</v>
       </c>
       <c r="B31" s="11"/>
@@ -2750,7 +3179,7 @@
       <c r="H31" s="11"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="36"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>

--- a/MyRhythm.xlsx
+++ b/MyRhythm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20374"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\labWork\NowORNever1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\research\NowORNever1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127419AC-970B-48CA-855B-8C88489B72F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B62B7A-1969-41F1-8E52-E9943A3DD8DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{30C03C2A-C2A3-435E-A63D-0E3D6B1ED658}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="112">
   <si>
     <t>Monday</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -424,6 +424,46 @@
   </si>
   <si>
     <t>write conclusion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sleep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>write contingency plan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exercise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>read social psychology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>run for 2 km</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eat outside</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>learn exercise guidance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">exercise </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>read books</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">hang out and talk </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -654,101 +694,101 @@
     <xf numFmtId="20" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1135,23 +1175,28 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21:H22"/>
+      <selection activeCell="E3" sqref="E3:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="5.875" style="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="50" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="50" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="14.625" style="50" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="9" style="50"/>
-    <col min="14" max="14" width="30.5" style="50" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="50"/>
+    <col min="1" max="2" width="5.875" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.125" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.375" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.625" style="30" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9" style="30"/>
+    <col min="13" max="13" width="4" style="30" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.25" style="30" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="41"/>
-      <c r="B1" s="42"/>
+      <c r="A1" s="35"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="15" t="s">
         <v>6</v>
       </c>
@@ -1178,8 +1223,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="15" t="s">
         <v>98</v>
       </c>
@@ -1206,15 +1251,19 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="51">
+      <c r="A3" s="31">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B3" s="51">
+      <c r="B3" s="31">
         <v>0.375</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>103</v>
+      </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
@@ -1222,15 +1271,15 @@
       <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="51">
+      <c r="A4" s="31">
         <v>0.375</v>
       </c>
-      <c r="B4" s="51">
+      <c r="B4" s="31">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
@@ -1238,17 +1287,17 @@
       <c r="J4" s="16"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="51">
+      <c r="A5" s="31">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B5" s="51">
+      <c r="B5" s="31">
         <v>0.45833333333333298</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="38"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
@@ -1256,17 +1305,19 @@
       <c r="J5" s="16"/>
     </row>
     <row r="6" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="51">
+      <c r="A6" s="31">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B6" s="51">
+      <c r="B6" s="31">
         <v>0.5</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="16" t="s">
+        <v>106</v>
+      </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
@@ -1274,10 +1325,10 @@
       <c r="J6" s="16"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="52">
+      <c r="A7" s="32">
         <v>0.5</v>
       </c>
-      <c r="B7" s="52">
+      <c r="B7" s="32">
         <v>0.54166666666666596</v>
       </c>
       <c r="C7" s="15"/>
@@ -1290,17 +1341,21 @@
       <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="53">
+      <c r="A8" s="33">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B8" s="53">
+      <c r="B8" s="33">
         <v>0.58333333333333304</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
+      <c r="D8" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>105</v>
+      </c>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
@@ -1308,15 +1363,15 @@
       <c r="J8" s="14"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="53">
+      <c r="A9" s="33">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B9" s="53">
+      <c r="B9" s="33">
         <v>0.625</v>
       </c>
       <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="42"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -1324,15 +1379,17 @@
       <c r="J9" s="14"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="53">
+      <c r="A10" s="33">
         <v>0.625</v>
       </c>
-      <c r="B10" s="53">
+      <c r="B10" s="33">
         <v>0.66666666666666596</v>
       </c>
       <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
+      <c r="D10" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="42"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
@@ -1340,15 +1397,15 @@
       <c r="J10" s="14"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="53">
+      <c r="A11" s="33">
         <v>0.66666666666666596</v>
       </c>
-      <c r="B11" s="53">
+      <c r="B11" s="33">
         <v>0.70833333333333304</v>
       </c>
       <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
@@ -1356,15 +1413,15 @@
       <c r="J11" s="14"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="53">
+      <c r="A12" s="33">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B12" s="53">
+      <c r="B12" s="33">
         <v>0.75</v>
       </c>
       <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
@@ -1372,15 +1429,17 @@
       <c r="J12" s="14"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="52">
+      <c r="A13" s="32">
         <v>0.75</v>
       </c>
-      <c r="B13" s="52">
+      <c r="B13" s="32">
         <v>0.79166666666666696</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
+      <c r="E13" s="15" t="s">
+        <v>107</v>
+      </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
@@ -1388,15 +1447,19 @@
       <c r="J13" s="15"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="54">
+      <c r="A14" s="34">
         <v>0.79166666666666696</v>
       </c>
-      <c r="B14" s="54">
+      <c r="B14" s="34">
         <v>0.83333333333333304</v>
       </c>
       <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
+      <c r="D14" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>111</v>
+      </c>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
@@ -1404,15 +1467,17 @@
       <c r="J14" s="17"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="54">
+      <c r="A15" s="34">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B15" s="54">
+      <c r="B15" s="34">
         <v>0.875</v>
       </c>
       <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="17" t="s">
+        <v>108</v>
+      </c>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
@@ -1420,15 +1485,19 @@
       <c r="J15" s="17"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="54">
+      <c r="A16" s="34">
         <v>0.875</v>
       </c>
-      <c r="B16" s="54">
+      <c r="B16" s="34">
         <v>0.91666666666666696</v>
       </c>
       <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
+      <c r="D16" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>109</v>
+      </c>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
@@ -1436,15 +1505,19 @@
       <c r="J16" s="17"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="54">
+      <c r="A17" s="34">
         <v>0.91666666666666696</v>
       </c>
-      <c r="B17" s="54">
+      <c r="B17" s="34">
         <v>0.95833333333333304</v>
       </c>
       <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
+      <c r="D17" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>110</v>
+      </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -1452,8 +1525,8 @@
       <c r="J17" s="17"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="41"/>
-      <c r="B19" s="42"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="15" t="s">
         <v>6</v>
       </c>
@@ -1486,23 +1559,23 @@
       <c r="B20" s="18">
         <v>0.375</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30" t="s">
+      <c r="C20" s="37"/>
+      <c r="D20" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="E20" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="G20" s="30" t="s">
+      <c r="G20" s="37" t="s">
         <v>43</v>
       </c>
       <c r="H20" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="I20" s="30" t="s">
+      <c r="I20" s="37" t="s">
         <v>44</v>
       </c>
       <c r="J20" s="16"/>
@@ -1514,20 +1587,20 @@
       <c r="B21" s="18">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="25" t="s">
+      <c r="C21" s="44"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="G21" s="34"/>
-      <c r="H21" s="30" t="s">
+      <c r="G21" s="44"/>
+      <c r="H21" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="I21" s="34"/>
+      <c r="I21" s="44"/>
       <c r="J21" s="16"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29" t="s">
+      <c r="M21" s="26"/>
+      <c r="N21" s="26" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1538,22 +1611,22 @@
       <c r="B22" s="18">
         <v>0.45833333333333298</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="25" t="s">
+      <c r="C22" s="44"/>
+      <c r="D22" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="30" t="s">
+      <c r="E22" s="44"/>
+      <c r="F22" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="34"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="34"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="44"/>
       <c r="J22" s="16"/>
-      <c r="M22" s="29">
+      <c r="M22" s="26">
         <v>1</v>
       </c>
-      <c r="N22" s="29" t="s">
+      <c r="N22" s="26" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1564,50 +1637,50 @@
       <c r="B23" s="18">
         <v>0.5</v>
       </c>
-      <c r="C23" s="34"/>
+      <c r="C23" s="44"/>
       <c r="D23" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="34"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="44"/>
       <c r="H23" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="I23" s="34"/>
+      <c r="I23" s="44"/>
       <c r="J23" s="16"/>
-      <c r="M23" s="29">
+      <c r="M23" s="26">
         <v>2</v>
       </c>
-      <c r="N23" s="29" t="s">
+      <c r="N23" s="26" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="57" x14ac:dyDescent="0.2">
       <c r="A24" s="19">
         <v>0.5</v>
       </c>
       <c r="B24" s="19">
         <v>0.54166666666666596</v>
       </c>
-      <c r="C24" s="34"/>
+      <c r="C24" s="44"/>
       <c r="D24" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="31"/>
+      <c r="E24" s="38"/>
       <c r="F24" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="G24" s="31"/>
+      <c r="G24" s="38"/>
       <c r="H24" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="I24" s="31"/>
+      <c r="I24" s="38"/>
       <c r="J24" s="15"/>
-      <c r="M24" s="29">
+      <c r="M24" s="26">
         <v>3</v>
       </c>
-      <c r="N24" s="29" t="s">
+      <c r="N24" s="26" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1618,134 +1691,134 @@
       <c r="B25" s="20">
         <v>0.58333333333333304</v>
       </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="35" t="s">
+      <c r="C25" s="44"/>
+      <c r="D25" s="41" t="s">
         <v>63</v>
       </c>
       <c r="E25" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="F25" s="35" t="s">
+      <c r="F25" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="G25" s="35" t="s">
+      <c r="G25" s="41" t="s">
         <v>84</v>
       </c>
       <c r="H25" s="40"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
-      <c r="M25" s="29">
+      <c r="M25" s="26">
         <v>4</v>
       </c>
-      <c r="N25" s="29" t="s">
+      <c r="N25" s="26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="20">
         <v>0.58333333333333304</v>
       </c>
       <c r="B26" s="20">
         <v>0.625</v>
       </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="36"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="43"/>
       <c r="E26" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="36"/>
-      <c r="G26" s="37"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="42"/>
       <c r="H26" s="14" t="s">
         <v>88</v>
       </c>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
-      <c r="M26" s="29">
+      <c r="M26" s="26">
         <v>5</v>
       </c>
-      <c r="N26" s="29" t="s">
+      <c r="N26" s="26" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="20">
         <v>0.625</v>
       </c>
       <c r="B27" s="20">
         <v>0.66666666666666596</v>
       </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="35" t="s">
+      <c r="C27" s="38"/>
+      <c r="D27" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="35" t="s">
+      <c r="E27" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="35" t="s">
+      <c r="F27" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="G27" s="36"/>
-      <c r="H27" s="35" t="s">
+      <c r="G27" s="43"/>
+      <c r="H27" s="41" t="s">
         <v>89</v>
       </c>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
-      <c r="M27" s="29">
+      <c r="M27" s="26">
         <v>6</v>
       </c>
-      <c r="N27" s="29" t="s">
+      <c r="N27" s="26" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="20">
         <v>0.66666666666666596</v>
       </c>
       <c r="B28" s="20">
         <v>0.70833333333333304</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="35" t="s">
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="H28" s="37"/>
+      <c r="H28" s="42"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
-      <c r="M28" s="29">
+      <c r="M28" s="26">
         <v>7</v>
       </c>
-      <c r="N28" s="29"/>
-    </row>
-    <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N28" s="26"/>
+    </row>
+    <row r="29" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A29" s="20">
         <v>0.70833333333333304</v>
       </c>
       <c r="B29" s="20">
         <v>0.75</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
       <c r="F29" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
-      <c r="M29" s="29">
+      <c r="M29" s="26">
         <v>8</v>
       </c>
-      <c r="N29" s="29" t="s">
+      <c r="N29" s="26" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A30" s="19">
         <v>0.75</v>
       </c>
@@ -1766,10 +1839,10 @@
       </c>
       <c r="I30" s="15"/>
       <c r="J30" s="15"/>
-      <c r="M30" s="29">
+      <c r="M30" s="26">
         <v>9</v>
       </c>
-      <c r="N30" s="29"/>
+      <c r="N30" s="26"/>
     </row>
     <row r="31" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A31" s="22">
@@ -1781,16 +1854,16 @@
       <c r="C31" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="32" t="s">
+      <c r="D31" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="E31" s="32" t="s">
+      <c r="E31" s="45" t="s">
         <v>72</v>
       </c>
       <c r="F31" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G31" s="32" t="s">
+      <c r="G31" s="45" t="s">
         <v>85</v>
       </c>
       <c r="H31" s="17" t="s">
@@ -1798,29 +1871,29 @@
       </c>
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
-      <c r="M31" s="29">
+      <c r="M31" s="26">
         <v>10</v>
       </c>
-      <c r="N31" s="29" t="s">
+      <c r="N31" s="26" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="22">
         <v>0.83333333333333304</v>
       </c>
       <c r="B32" s="22">
         <v>0.875</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="32" t="s">
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="G32" s="38"/>
+      <c r="G32" s="47"/>
       <c r="H32" s="17" t="s">
         <v>92</v>
       </c>
@@ -1834,21 +1907,21 @@
       <c r="B33" s="22">
         <v>0.91666666666666696</v>
       </c>
-      <c r="C33" s="33"/>
+      <c r="C33" s="46"/>
       <c r="D33" s="15" t="s">
         <v>57</v>
       </c>
       <c r="E33" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="32" t="s">
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="45" t="s">
         <v>89</v>
       </c>
       <c r="I33" s="17"/>
       <c r="J33" s="17"/>
-      <c r="N33" s="50" t="s">
+      <c r="N33" s="30" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1874,26 +1947,17 @@
       <c r="G34" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="H34" s="33"/>
+      <c r="H34" s="46"/>
       <c r="I34" s="17"/>
       <c r="J34" s="17"/>
-      <c r="N34" s="29" t="s">
+      <c r="N34" s="26" t="s">
         <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="G20:G24"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="H21:H22"/>
+  <mergeCells count="32">
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="E8:E12"/>
     <mergeCell ref="H33:H34"/>
     <mergeCell ref="I20:I24"/>
     <mergeCell ref="F22:F23"/>
@@ -1909,6 +1973,21 @@
     <mergeCell ref="F32:F33"/>
     <mergeCell ref="G28:G29"/>
     <mergeCell ref="G31:G33"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="G20:G24"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D14:D15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1980,39 +2059,39 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="48" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="9"/>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="49" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="49" t="s">
         <v>42</v>
       </c>
       <c r="F3" s="9"/>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="49" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="9"/>
-      <c r="C4" s="44"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="44"/>
+      <c r="E4" s="50"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="44"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="48" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="10"/>
@@ -2026,19 +2105,19 @@
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="45"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="41" t="s">
         <v>39</v>
       </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="48" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="11"/>
@@ -2046,17 +2125,17 @@
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="46"/>
+      <c r="G7" s="51"/>
       <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="45"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="47"/>
+      <c r="G8" s="52"/>
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2109,12 +2188,12 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="48" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="49" t="s">
         <v>60</v>
       </c>
       <c r="E11" s="9"/>
@@ -2123,17 +2202,17 @@
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="45"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="44"/>
+      <c r="D12" s="50"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="48" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="10"/>
@@ -2145,7 +2224,7 @@
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="45"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -2155,7 +2234,7 @@
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="48" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="11"/>
@@ -2167,7 +2246,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="45"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -2226,12 +2305,12 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="48" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="43" t="s">
+      <c r="D19" s="49" t="s">
         <v>61</v>
       </c>
       <c r="E19" s="9"/>
@@ -2240,17 +2319,17 @@
       <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="45"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="44"/>
+      <c r="D20" s="50"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="48" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="10"/>
@@ -2262,7 +2341,7 @@
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="45"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -2272,7 +2351,7 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="48" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="11"/>
@@ -2284,7 +2363,7 @@
       <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="45"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -2339,7 +2418,7 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="48" t="s">
         <v>7</v>
       </c>
       <c r="B27" s="9"/>
@@ -2351,7 +2430,7 @@
       <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="45"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -2361,7 +2440,7 @@
       <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="48" t="s">
         <v>8</v>
       </c>
       <c r="B29" s="10"/>
@@ -2373,7 +2452,7 @@
       <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="45"/>
+      <c r="A30" s="48"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -2383,7 +2462,7 @@
       <c r="H30" s="10"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="48" t="s">
         <v>9</v>
       </c>
       <c r="B31" s="11"/>
@@ -2395,7 +2474,7 @@
       <c r="H31" s="11"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="45"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -2406,6 +2485,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="D11:D12"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="E3:E4"/>
@@ -2418,12 +2503,6 @@
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="D19:D20"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="D11:D12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2448,8 +2527,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="48"/>
-      <c r="B1" s="49"/>
+      <c r="A1" s="53"/>
+      <c r="B1" s="54"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2473,15 +2552,15 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -2782,7 +2861,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="48" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="9"/>
@@ -2794,7 +2873,7 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -2804,7 +2883,7 @@
       <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="48" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="10"/>
@@ -2816,7 +2895,7 @@
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="45"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -2826,7 +2905,7 @@
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="48" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="11"/>
@@ -2838,7 +2917,7 @@
       <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="45"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -2897,7 +2976,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="48" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="9"/>
@@ -2909,7 +2988,7 @@
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="45"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -2919,7 +2998,7 @@
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="48" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="10"/>
@@ -2931,7 +3010,7 @@
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="45"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -2941,7 +3020,7 @@
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="48" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="11"/>
@@ -2953,7 +3032,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="45"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -3012,7 +3091,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="48" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="9"/>
@@ -3024,7 +3103,7 @@
       <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="45"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -3034,7 +3113,7 @@
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="48" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="10"/>
@@ -3046,7 +3125,7 @@
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="45"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -3056,7 +3135,7 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="48" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="11"/>
@@ -3068,7 +3147,7 @@
       <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="45"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -3123,7 +3202,7 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="48" t="s">
         <v>7</v>
       </c>
       <c r="B27" s="9"/>
@@ -3135,7 +3214,7 @@
       <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="45"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -3145,7 +3224,7 @@
       <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="48" t="s">
         <v>8</v>
       </c>
       <c r="B29" s="10"/>
@@ -3157,7 +3236,7 @@
       <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="45"/>
+      <c r="A30" s="48"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -3167,7 +3246,7 @@
       <c r="H30" s="10"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="48" t="s">
         <v>9</v>
       </c>
       <c r="B31" s="11"/>
@@ -3179,7 +3258,7 @@
       <c r="H31" s="11"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="45"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>

--- a/MyRhythm.xlsx
+++ b/MyRhythm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20376"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\research\NowORNever1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\research\NowORNever1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B62B7A-1969-41F1-8E52-E9943A3DD8DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4F53D2-8407-4636-8815-B0F2242C6FDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{30C03C2A-C2A3-435E-A63D-0E3D6B1ED658}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12132" xr2:uid="{30C03C2A-C2A3-435E-A63D-0E3D6B1ED658}"/>
   </bookViews>
   <sheets>
     <sheet name="thisWeek" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="122">
   <si>
     <t>Monday</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -464,6 +464,48 @@
   </si>
   <si>
     <t xml:space="preserve">hang out and talk </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年7月21日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drive and visit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>read book</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sleep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>research work with topic choosing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wednesday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>read poetry
+write diary
+make plan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>running and showering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relax and chat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -624,7 +666,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -709,26 +751,53 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -736,48 +805,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -789,6 +831,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1172,456 +1217,428 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B3F5F0-233C-4435-BE62-4C6296F9AB6F}">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E5"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="5.875" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.125" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.125" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="30" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.625" style="30" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9" style="30"/>
-    <col min="13" max="13" width="4" style="30" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.25" style="30" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="30"/>
+    <col min="1" max="2" width="5.88671875" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9" style="28"/>
+    <col min="13" max="13" width="4" style="28" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.21875" style="28" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="35"/>
-      <c r="B1" s="36"/>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="44"/>
+      <c r="B1" s="45"/>
       <c r="C1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>19</v>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46" t="s">
+        <v>112</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="29">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="29">
         <v>0.375</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="F3" s="16"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="35" t="s">
+        <v>113</v>
+      </c>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="31">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="29">
         <v>0.375</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="29">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="16"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="36"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="31">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="29">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="29">
         <v>0.45833333333333298</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="16"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="37"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-    </row>
-    <row r="6" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="31">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="29">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="29">
         <v>0.5</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="F6" s="16"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="16" t="s">
+        <v>114</v>
+      </c>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="32">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
         <v>0.5</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="30">
         <v>0.54166666666666596</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="15" t="s">
+        <v>115</v>
+      </c>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="33">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="31">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="31">
         <v>0.58333333333333304</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="F8" s="14"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="14" t="s">
+        <v>116</v>
+      </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="33">
+    </row>
+    <row r="9" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="31">
         <v>0.625</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="14"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="38" t="s">
+        <v>117</v>
+      </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="33">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="31">
         <v>0.625</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="31">
         <v>0.66666666666666596</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="14"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="39"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="33">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="31">
         <v>0.66666666666666596</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="31">
         <v>0.70833333333333304</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="14"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="39"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="33">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="31">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="31">
         <v>0.75</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="14"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="40"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="32">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="30">
         <v>0.75</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="30">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13" s="15"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="15" t="s">
+        <v>115</v>
+      </c>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="34">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="32">
         <v>0.79166666666666696</v>
       </c>
-      <c r="B14" s="34">
+      <c r="B14" s="32">
         <v>0.83333333333333304</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="F14" s="17"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="17" t="s">
+        <v>114</v>
+      </c>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="34">
+    </row>
+    <row r="15" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="32">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B15" s="34">
+      <c r="B15" s="32">
         <v>0.875</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F15" s="17"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="17" t="s">
+        <v>120</v>
+      </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="34">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="32">
         <v>0.875</v>
       </c>
-      <c r="B16" s="34">
+      <c r="B16" s="32">
         <v>0.91666666666666696</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="F16" s="17"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="17" t="s">
+        <v>121</v>
+      </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="34">
+    </row>
+    <row r="17" spans="1:14" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A17" s="32">
         <v>0.91666666666666696</v>
       </c>
-      <c r="B17" s="34">
+      <c r="B17" s="32">
         <v>0.95833333333333304</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="F17" s="17"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="17" t="s">
+        <v>119</v>
+      </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="35"/>
-      <c r="B19" s="36"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="44"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="33"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="15" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="J19" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="18">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="29">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="29">
         <v>0.375</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="G20" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="I20" s="37" t="s">
-        <v>44</v>
-      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
       <c r="J20" s="16"/>
     </row>
-    <row r="21" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="18">
+    <row r="21" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="29">
         <v>0.375</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="29">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="44"/>
-      <c r="H21" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="I21" s="44"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
       <c r="J21" s="16"/>
       <c r="M21" s="26"/>
       <c r="N21" s="26" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="18">
+    <row r="22" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="29">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="29">
         <v>0.45833333333333298</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="44"/>
-      <c r="F22" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="G22" s="44"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="44"/>
+      <c r="C22" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
       <c r="J22" s="16"/>
       <c r="M22" s="26">
         <v>1</v>
@@ -1630,24 +1647,24 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="18">
+    <row r="23" spans="1:14" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A23" s="29">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="29">
         <v>0.5</v>
       </c>
-      <c r="C23" s="44"/>
-      <c r="D23" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="44"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="I23" s="44"/>
+      <c r="C23" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="37"/>
+      <c r="E23" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
       <c r="J23" s="16"/>
       <c r="M23" s="26">
         <v>2</v>
@@ -1656,26 +1673,20 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="57" x14ac:dyDescent="0.2">
-      <c r="A24" s="19">
+    <row r="24" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="30">
         <v>0.5</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="30">
         <v>0.54166666666666596</v>
       </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="38"/>
-      <c r="F24" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="G24" s="38"/>
-      <c r="H24" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="I24" s="38"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
       <c r="J24" s="15"/>
       <c r="M24" s="26">
         <v>3</v>
@@ -1684,27 +1695,25 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="20">
+    <row r="25" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="31">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B25" s="20">
+      <c r="B25" s="31">
         <v>0.58333333333333304</v>
       </c>
-      <c r="C25" s="44"/>
-      <c r="D25" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="F25" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="G25" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="H25" s="40"/>
+      <c r="C25" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
       <c r="M25" s="26">
@@ -1714,23 +1723,19 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="20">
+    <row r="26" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A26" s="31">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B26" s="20">
+      <c r="B26" s="31">
         <v>0.625</v>
       </c>
-      <c r="C26" s="44"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="43"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="14" t="s">
-        <v>88</v>
-      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
       <c r="M26" s="26">
@@ -1740,27 +1745,21 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="20">
+    <row r="27" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="31">
         <v>0.625</v>
       </c>
-      <c r="B27" s="20">
+      <c r="B27" s="31">
         <v>0.66666666666666596</v>
       </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="F27" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="G27" s="43"/>
-      <c r="H27" s="41" t="s">
-        <v>89</v>
-      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="39"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
       <c r="M27" s="26">
@@ -1770,23 +1769,19 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="20">
+    <row r="28" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A28" s="31">
         <v>0.66666666666666596</v>
       </c>
-      <c r="B28" s="20">
+      <c r="B28" s="31">
         <v>0.70833333333333304</v>
       </c>
-      <c r="C28" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="H28" s="42"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
       <c r="M28" s="26">
@@ -1794,21 +1789,19 @@
       </c>
       <c r="N28" s="26"/>
     </row>
-    <row r="29" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="20">
+    <row r="29" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="31">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B29" s="20">
+      <c r="B29" s="31">
         <v>0.75</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
       <c r="M29" s="26">
@@ -1818,25 +1811,21 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="19">
+    <row r="30" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="30">
         <v>0.75</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="30">
         <v>0.79166666666666696</v>
       </c>
       <c r="C30" s="15"/>
-      <c r="D30" s="21"/>
+      <c r="D30" s="15"/>
       <c r="E30" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>80</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="F30" s="15"/>
       <c r="G30" s="15"/>
-      <c r="H30" s="15" t="s">
-        <v>94</v>
-      </c>
+      <c r="H30" s="15"/>
       <c r="I30" s="15"/>
       <c r="J30" s="15"/>
       <c r="M30" s="26">
@@ -1844,31 +1833,23 @@
       </c>
       <c r="N30" s="26"/>
     </row>
-    <row r="31" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="22">
+    <row r="31" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A31" s="32">
         <v>0.79166666666666696</v>
       </c>
-      <c r="B31" s="22">
+      <c r="B31" s="32">
         <v>0.83333333333333304</v>
       </c>
-      <c r="C31" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="G31" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="H31" s="17" t="s">
-        <v>93</v>
-      </c>
+      <c r="C31" s="17"/>
+      <c r="D31" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
       <c r="M31" s="26">
@@ -1878,116 +1859,456 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="22">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="32">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B32" s="22">
+      <c r="B32" s="32">
         <v>0.875</v>
       </c>
-      <c r="C32" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="G32" s="47"/>
-      <c r="H32" s="17" t="s">
-        <v>92</v>
-      </c>
+      <c r="C32" s="17"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
       <c r="I32" s="17"/>
       <c r="J32" s="17"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="22">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="32">
         <v>0.875</v>
       </c>
-      <c r="B33" s="22">
+      <c r="B33" s="32">
         <v>0.91666666666666696</v>
       </c>
-      <c r="C33" s="46"/>
-      <c r="D33" s="15" t="s">
-        <v>57</v>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17" t="s">
+        <v>104</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="45" t="s">
-        <v>89</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
       <c r="I33" s="17"/>
       <c r="J33" s="17"/>
-      <c r="N33" s="30" t="s">
+      <c r="N33" s="28" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="60" x14ac:dyDescent="0.2">
-      <c r="A34" s="22">
+    <row r="34" spans="1:14" ht="64.8" x14ac:dyDescent="0.25">
+      <c r="A34" s="32">
         <v>0.91666666666666696</v>
       </c>
-      <c r="B34" s="22">
+      <c r="B34" s="32">
         <v>0.95833333333333304</v>
       </c>
-      <c r="C34" s="17" t="s">
-        <v>57</v>
-      </c>
+      <c r="C34" s="17"/>
       <c r="D34" s="17" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="G34" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="H34" s="46"/>
+        <v>110</v>
+      </c>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
       <c r="I34" s="17"/>
       <c r="J34" s="17"/>
       <c r="N34" s="26" t="s">
         <v>97</v>
       </c>
     </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="44"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A37" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B37" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="G37" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="H37" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I37" s="35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="B38" s="18">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C38" s="36"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="G38" s="36"/>
+      <c r="H38" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="I38" s="36"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="18">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B39" s="18">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="C39" s="36"/>
+      <c r="D39" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" s="36"/>
+      <c r="F39" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39" s="36"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="36"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="18">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B40" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="C40" s="36"/>
+      <c r="D40" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" s="36"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="I40" s="36"/>
+    </row>
+    <row r="41" spans="1:14" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A41" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="B41" s="19">
+        <v>0.54166666666666596</v>
+      </c>
+      <c r="C41" s="36"/>
+      <c r="D41" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="37"/>
+      <c r="F41" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G41" s="37"/>
+      <c r="H41" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="I41" s="37"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="20">
+        <v>0.54166666666666596</v>
+      </c>
+      <c r="B42" s="20">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C42" s="36"/>
+      <c r="D42" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F42" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="G42" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="H42" s="47"/>
+      <c r="I42" s="14"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="20">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B43" s="20">
+        <v>0.625</v>
+      </c>
+      <c r="C43" s="36"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F43" s="40"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I43" s="14"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="20">
+        <v>0.625</v>
+      </c>
+      <c r="B44" s="20">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="C44" s="37"/>
+      <c r="D44" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="F44" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="G44" s="40"/>
+      <c r="H44" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="I44" s="14"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="20">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="B45" s="20">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="C45" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="H45" s="39"/>
+      <c r="I45" s="14"/>
+    </row>
+    <row r="46" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A46" s="20">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B46" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="14"/>
+    </row>
+    <row r="47" spans="1:14" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A47" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="B47" s="19">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I47" s="15"/>
+    </row>
+    <row r="48" spans="1:14" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A48" s="22">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="B48" s="22">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G48" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="H48" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="I48" s="17"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="22">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="B49" s="22">
+        <v>0.875</v>
+      </c>
+      <c r="C49" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="G49" s="43"/>
+      <c r="H49" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="I49" s="17"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="22">
+        <v>0.875</v>
+      </c>
+      <c r="B50" s="22">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="C50" s="42"/>
+      <c r="D50" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="I50" s="17"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="22">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="B51" s="22">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="G51" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="H51" s="42"/>
+      <c r="I51" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I20:I24"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="C20:C27"/>
-    <mergeCell ref="C32:C33"/>
+  <mergeCells count="38">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C2:C17"/>
+    <mergeCell ref="D2:D17"/>
+    <mergeCell ref="E2:E17"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="E37:E41"/>
+    <mergeCell ref="G37:G41"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="D20:D23"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="D27:D29"/>
-    <mergeCell ref="C28:C29"/>
     <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="G31:G33"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="G20:G24"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C37:C44"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I37:I41"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G48:G50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2003,13 +2324,13 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2032,7 +2353,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
@@ -2058,40 +2379,40 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="48" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="50" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="9"/>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="48" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="48" t="s">
         <v>42</v>
       </c>
       <c r="F3" s="9"/>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="48" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="48"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="50"/>
       <c r="B4" s="9"/>
-      <c r="C4" s="50"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="50"/>
+      <c r="E4" s="49"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="50"/>
+      <c r="G4" s="49"/>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="50" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="10"/>
@@ -2104,20 +2425,20 @@
       </c>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="48"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="50"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="38" t="s">
         <v>39</v>
       </c>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="48" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="50" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="11"/>
@@ -2128,8 +2449,8 @@
       <c r="G7" s="51"/>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="48"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="50"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -2138,7 +2459,7 @@
       <c r="G8" s="52"/>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
@@ -2161,7 +2482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
@@ -2187,13 +2508,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="48" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="50" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="48" t="s">
         <v>60</v>
       </c>
       <c r="E11" s="9"/>
@@ -2201,18 +2522,18 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="48"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="50"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="50"/>
+      <c r="D12" s="49"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="48" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="50" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="10"/>
@@ -2223,8 +2544,8 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="48"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="50"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -2233,8 +2554,8 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="48" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="50" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="11"/>
@@ -2245,8 +2566,8 @@
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="48"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="50"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -2255,7 +2576,7 @@
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>0</v>
       </c>
@@ -2278,7 +2599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>25</v>
       </c>
@@ -2304,13 +2625,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="48" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="50" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="49" t="s">
+      <c r="D19" s="48" t="s">
         <v>61</v>
       </c>
       <c r="E19" s="9"/>
@@ -2318,18 +2639,18 @@
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="48"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="50"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="50"/>
+      <c r="D20" s="49"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="48" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="50" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="10"/>
@@ -2340,8 +2661,8 @@
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="48"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="50"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -2350,8 +2671,8 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="48" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="50" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="11"/>
@@ -2362,8 +2683,8 @@
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="48"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="50"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -2372,7 +2693,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>0</v>
       </c>
@@ -2395,7 +2716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>32</v>
       </c>
@@ -2417,8 +2738,8 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="48" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="50" t="s">
         <v>7</v>
       </c>
       <c r="B27" s="9"/>
@@ -2429,8 +2750,8 @@
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="48"/>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="50"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -2439,8 +2760,8 @@
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="48" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="50" t="s">
         <v>8</v>
       </c>
       <c r="B29" s="10"/>
@@ -2451,8 +2772,8 @@
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="48"/>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="50"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -2461,8 +2782,8 @@
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="48" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="50" t="s">
         <v>9</v>
       </c>
       <c r="B31" s="11"/>
@@ -2473,8 +2794,8 @@
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="48"/>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="50"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -2485,12 +2806,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="D11:D12"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="E3:E4"/>
@@ -2503,6 +2818,12 @@
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="D19:D20"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="D11:D12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2515,18 +2836,18 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="53"/>
       <c r="B1" s="54"/>
       <c r="C1" s="1" t="s">
@@ -2551,7 +2872,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="23"/>
@@ -2562,7 +2883,7 @@
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -2577,7 +2898,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0.375</v>
       </c>
@@ -2592,7 +2913,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0.41666666666666702</v>
       </c>
@@ -2607,7 +2928,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>0.45833333333333298</v>
       </c>
@@ -2622,7 +2943,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>0.5</v>
       </c>
@@ -2637,7 +2958,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>0.54166666666666596</v>
       </c>
@@ -2652,7 +2973,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>0.58333333333333304</v>
       </c>
@@ -2667,7 +2988,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>0.625</v>
       </c>
@@ -2682,7 +3003,7 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>0.66666666666666596</v>
       </c>
@@ -2697,7 +3018,7 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>0.70833333333333304</v>
       </c>
@@ -2712,7 +3033,7 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>0.75</v>
       </c>
@@ -2727,7 +3048,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>0.79166666666666696</v>
       </c>
@@ -2742,7 +3063,7 @@
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>0.83333333333333304</v>
       </c>
@@ -2757,7 +3078,7 @@
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>0.875</v>
       </c>
@@ -2772,7 +3093,7 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>0.91666666666666696</v>
       </c>
@@ -2805,13 +3126,13 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2834,7 +3155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
@@ -2860,8 +3181,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="48" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="50" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="9"/>
@@ -2872,8 +3193,8 @@
       <c r="G3" s="12"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="48"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="50"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -2882,8 +3203,8 @@
       <c r="G4" s="12"/>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="50" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="10"/>
@@ -2894,8 +3215,8 @@
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="48"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="50"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -2904,8 +3225,8 @@
       <c r="G6" s="13"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="48" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="50" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="11"/>
@@ -2916,8 +3237,8 @@
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="48"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="50"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -2926,7 +3247,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
@@ -2949,7 +3270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
@@ -2975,8 +3296,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="48" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="50" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="9"/>
@@ -2987,8 +3308,8 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="48"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="50"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -2997,8 +3318,8 @@
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="48" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="50" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="10"/>
@@ -3009,8 +3330,8 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="48"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="50"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -3019,8 +3340,8 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="48" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="50" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="11"/>
@@ -3031,8 +3352,8 @@
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="48"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="50"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -3041,7 +3362,7 @@
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>0</v>
       </c>
@@ -3064,7 +3385,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>25</v>
       </c>
@@ -3090,8 +3411,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="48" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="50" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="9"/>
@@ -3102,8 +3423,8 @@
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="48"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="50"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -3112,8 +3433,8 @@
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="48" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="50" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="10"/>
@@ -3124,8 +3445,8 @@
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="48"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="50"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -3134,8 +3455,8 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="48" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="50" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="11"/>
@@ -3146,8 +3467,8 @@
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="48"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="50"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -3156,7 +3477,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>0</v>
       </c>
@@ -3179,7 +3500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>32</v>
       </c>
@@ -3201,8 +3522,8 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="48" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="50" t="s">
         <v>7</v>
       </c>
       <c r="B27" s="9"/>
@@ -3213,8 +3534,8 @@
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="48"/>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="50"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -3223,8 +3544,8 @@
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="48" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="50" t="s">
         <v>8</v>
       </c>
       <c r="B29" s="10"/>
@@ -3235,8 +3556,8 @@
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="48"/>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="50"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -3245,8 +3566,8 @@
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="48" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="50" t="s">
         <v>9</v>
       </c>
       <c r="B31" s="11"/>
@@ -3257,8 +3578,8 @@
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="48"/>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="50"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>

--- a/MyRhythm.xlsx
+++ b/MyRhythm.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\research\NowORNever1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\labWork\NowORNever1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4F53D2-8407-4636-8815-B0F2242C6FDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFBC9C7-122B-4F34-9EEA-4D25637B31DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12132" xr2:uid="{30C03C2A-C2A3-435E-A63D-0E3D6B1ED658}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{30C03C2A-C2A3-435E-A63D-0E3D6B1ED658}"/>
   </bookViews>
   <sheets>
     <sheet name="thisWeek" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="143">
   <si>
     <t>Monday</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -506,6 +506,87 @@
   </si>
   <si>
     <t>relax and chat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年8月1日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年8月2日</t>
+  </si>
+  <si>
+    <t>2021年8月3日</t>
+  </si>
+  <si>
+    <t>2021年8月4日</t>
+  </si>
+  <si>
+    <t>2021年8月5日</t>
+  </si>
+  <si>
+    <t>2021年8月6日</t>
+  </si>
+  <si>
+    <t>2021年8月7日</t>
+  </si>
+  <si>
+    <t>2021年8月8日</t>
+  </si>
+  <si>
+    <t>eating and shopping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>literature reading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exercise and detection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eating and reciting 
+with my girl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sleep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>project searching</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">eating and </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exercise waist and 
+abdomen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meeting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>study uygur language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>literature reading
+get hair cut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrrange my day
+project ontline</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -666,7 +747,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -772,6 +853,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -799,17 +904,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -817,9 +913,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -831,9 +924,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1217,1098 +1307,1422 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B3F5F0-233C-4435-BE62-4C6296F9AB6F}">
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G4" sqref="G4:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="5.88671875" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="5.875" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="28" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.125" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.375" style="28" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.625" style="28" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="9" style="28"/>
     <col min="13" max="13" width="4" style="28" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.21875" style="28" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.25" style="28" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="44"/>
-      <c r="B1" s="45"/>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="57"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="35" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.54166666666666596</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>0.54166666666666596</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="C11" s="56"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0.875</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>0.875</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="38"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="33"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F21" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G21" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H21" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I21" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="29">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="29">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B22" s="29">
         <v>0.375</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="35" t="s">
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="B4" s="29">
-        <v>0.41666666666666702</v>
-      </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="29">
-        <v>0.41666666666666702</v>
-      </c>
-      <c r="B5" s="29">
-        <v>0.45833333333333298</v>
-      </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="29">
-        <v>0.45833333333333298</v>
-      </c>
-      <c r="B6" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="B7" s="30">
-        <v>0.54166666666666596</v>
-      </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="31">
-        <v>0.54166666666666596</v>
-      </c>
-      <c r="B8" s="31">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-    </row>
-    <row r="9" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="B9" s="31">
-        <v>0.625</v>
-      </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="31">
-        <v>0.625</v>
-      </c>
-      <c r="B10" s="31">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="31">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="B11" s="31">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="31">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="B12" s="31">
-        <v>0.75</v>
-      </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="30">
-        <v>0.75</v>
-      </c>
-      <c r="B13" s="30">
-        <v>0.79166666666666696</v>
-      </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="32">
-        <v>0.79166666666666696</v>
-      </c>
-      <c r="B14" s="32">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-    </row>
-    <row r="15" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="32">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="B15" s="32">
-        <v>0.875</v>
-      </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="32">
-        <v>0.875</v>
-      </c>
-      <c r="B16" s="32">
-        <v>0.91666666666666696</v>
-      </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-    </row>
-    <row r="17" spans="1:14" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="32">
-        <v>0.91666666666666696</v>
-      </c>
-      <c r="B17" s="32">
-        <v>0.95833333333333304</v>
-      </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="29">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="B20" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="E20" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-    </row>
-    <row r="21" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="29">
-        <v>0.375</v>
-      </c>
-      <c r="B21" s="29">
-        <v>0.41666666666666702</v>
-      </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="29">
-        <v>0.41666666666666702</v>
-      </c>
-      <c r="B22" s="29">
-        <v>0.45833333333333298</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" s="36"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="16"/>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="M22" s="26">
-        <v>1</v>
-      </c>
-      <c r="N22" s="26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="41.4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="29">
-        <v>0.45833333333333298</v>
+        <v>0.375</v>
       </c>
       <c r="B23" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="F23" s="16"/>
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="44"/>
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="M23" s="26">
-        <v>2</v>
-      </c>
-      <c r="N23" s="26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="30">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="29">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B24" s="29">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="29">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B25" s="29">
         <v>0.5</v>
       </c>
-      <c r="B24" s="30">
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="B26" s="30">
         <v>0.54166666666666596</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="M24" s="26">
-        <v>3</v>
-      </c>
-      <c r="N24" s="26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="31">
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="31">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B25" s="31">
+      <c r="B27" s="31">
         <v>0.58333333333333304</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="E25" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="M25" s="26">
-        <v>4</v>
-      </c>
-      <c r="N25" s="26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="31">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="B26" s="31">
-        <v>0.625</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="M26" s="26">
-        <v>5</v>
-      </c>
-      <c r="N26" s="26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="31">
-        <v>0.625</v>
-      </c>
-      <c r="B27" s="31">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="E27" s="39"/>
-      <c r="F27" s="14"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="14" t="s">
+        <v>116</v>
+      </c>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="M27" s="26">
-        <v>6</v>
-      </c>
-      <c r="N27" s="26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="31">
-        <v>0.66666666666666596</v>
+        <v>0.58333333333333304</v>
       </c>
       <c r="B28" s="31">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="14"/>
+        <v>0.625</v>
+      </c>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="46" t="s">
+        <v>117</v>
+      </c>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="M28" s="26">
-        <v>7</v>
-      </c>
-      <c r="N28" s="26"/>
-    </row>
-    <row r="29" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="31">
-        <v>0.70833333333333304</v>
+        <v>0.625</v>
       </c>
       <c r="B29" s="31">
-        <v>0.75</v>
-      </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="14"/>
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="47"/>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="M29" s="26">
-        <v>8</v>
-      </c>
-      <c r="N29" s="26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="30">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="31">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="B30" s="31">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="31">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B31" s="31">
         <v>0.75</v>
       </c>
-      <c r="B30" s="30">
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="30">
+        <v>0.75</v>
+      </c>
+      <c r="B32" s="30">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="M30" s="26">
-        <v>9</v>
-      </c>
-      <c r="N30" s="26"/>
-    </row>
-    <row r="31" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="32">
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="32">
         <v>0.79166666666666696</v>
       </c>
-      <c r="B31" s="32">
+      <c r="B33" s="32">
         <v>0.83333333333333304</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="M31" s="26">
-        <v>10</v>
-      </c>
-      <c r="N31" s="26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="32">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="B32" s="32">
-        <v>0.875</v>
-      </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="32">
-        <v>0.875</v>
-      </c>
-      <c r="B33" s="32">
-        <v>0.91666666666666696</v>
-      </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="F33" s="17"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="17" t="s">
+        <v>114</v>
+      </c>
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
       <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="N33" s="28" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="64.8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A34" s="32">
-        <v>0.91666666666666696</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="B34" s="32">
-        <v>0.95833333333333304</v>
-      </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="F34" s="17"/>
+        <v>0.875</v>
+      </c>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="17" t="s">
+        <v>120</v>
+      </c>
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
       <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="N34" s="26" t="s">
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="32">
+        <v>0.875</v>
+      </c>
+      <c r="B35" s="32">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+    </row>
+    <row r="36" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="32">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="B36" s="32">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="38"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="33"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J38" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="29">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B39" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+    </row>
+    <row r="40" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A40" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="B40" s="29">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C40" s="45"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A41" s="29">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B41" s="29">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" s="44"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="M41" s="26">
+        <v>1</v>
+      </c>
+      <c r="N41" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="29">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B42" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" s="45"/>
+      <c r="E42" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="M42" s="26">
+        <v>2</v>
+      </c>
+      <c r="N42" s="26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="B43" s="30">
+        <v>0.54166666666666596</v>
+      </c>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="M43" s="26">
+        <v>3</v>
+      </c>
+      <c r="N43" s="26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" s="31">
+        <v>0.54166666666666596</v>
+      </c>
+      <c r="B44" s="31">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="E44" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="M44" s="26">
+        <v>4</v>
+      </c>
+      <c r="N44" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" s="31">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B45" s="31">
+        <v>0.625</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="M45" s="26">
+        <v>5</v>
+      </c>
+      <c r="N45" s="26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46" s="31">
+        <v>0.625</v>
+      </c>
+      <c r="B46" s="31">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="C46" s="14"/>
+      <c r="D46" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46" s="47"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="M46" s="26">
+        <v>6</v>
+      </c>
+      <c r="N46" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A47" s="31">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="B47" s="31">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="M47" s="26">
+        <v>7</v>
+      </c>
+      <c r="N47" s="26"/>
+    </row>
+    <row r="48" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A48" s="31">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B48" s="31">
+        <v>0.75</v>
+      </c>
+      <c r="C48" s="14"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="M48" s="26">
+        <v>8</v>
+      </c>
+      <c r="N48" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A49" s="30">
+        <v>0.75</v>
+      </c>
+      <c r="B49" s="30">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="M49" s="26">
+        <v>9</v>
+      </c>
+      <c r="N49" s="26"/>
+    </row>
+    <row r="50" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A50" s="32">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="B50" s="32">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C50" s="17"/>
+      <c r="D50" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="M50" s="26">
+        <v>10</v>
+      </c>
+      <c r="N50" s="26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="32">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="B51" s="32">
+        <v>0.875</v>
+      </c>
+      <c r="C51" s="17"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="32">
+        <v>0.875</v>
+      </c>
+      <c r="B52" s="32">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="N52" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="60" x14ac:dyDescent="0.2">
+      <c r="A53" s="32">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="B53" s="32">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="N53" s="26" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="15" t="s">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" s="38"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D55" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="E55" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="F55" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G36" s="15" t="s">
+      <c r="G55" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H36" s="15" t="s">
+      <c r="H55" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I36" s="15" t="s">
+      <c r="I55" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A37" s="18">
+    <row r="56" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="18">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B37" s="18">
+      <c r="B56" s="18">
         <v>0.375</v>
       </c>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35" t="s">
+      <c r="C56" s="43"/>
+      <c r="D56" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="E37" s="35" t="s">
+      <c r="E56" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="F37" s="27" t="s">
+      <c r="F56" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="G37" s="35" t="s">
+      <c r="G56" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="H37" s="16" t="s">
+      <c r="H56" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="I37" s="35" t="s">
+      <c r="I56" s="43" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="18">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" s="18">
         <v>0.375</v>
       </c>
-      <c r="B38" s="18">
+      <c r="B57" s="18">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C38" s="36"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="27" t="s">
+      <c r="C57" s="44"/>
+      <c r="D57" s="45"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="G38" s="36"/>
-      <c r="H38" s="35" t="s">
+      <c r="G57" s="44"/>
+      <c r="H57" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="I38" s="36"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="18">
+      <c r="I57" s="44"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" s="18">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B39" s="18">
+      <c r="B58" s="18">
         <v>0.45833333333333298</v>
       </c>
-      <c r="C39" s="36"/>
-      <c r="D39" s="27" t="s">
+      <c r="C58" s="44"/>
+      <c r="D58" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="E39" s="36"/>
-      <c r="F39" s="35" t="s">
+      <c r="E58" s="44"/>
+      <c r="F58" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="G39" s="36"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="36"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="18">
+      <c r="G58" s="44"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="44"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" s="18">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B40" s="18">
+      <c r="B59" s="18">
         <v>0.5</v>
       </c>
-      <c r="C40" s="36"/>
-      <c r="D40" s="16" t="s">
+      <c r="C59" s="44"/>
+      <c r="D59" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E40" s="36"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="16" t="s">
+      <c r="E59" s="44"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="I40" s="36"/>
-    </row>
-    <row r="41" spans="1:14" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="19">
+      <c r="I59" s="44"/>
+    </row>
+    <row r="60" spans="1:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="A60" s="19">
         <v>0.5</v>
       </c>
-      <c r="B41" s="19">
+      <c r="B60" s="19">
         <v>0.54166666666666596</v>
       </c>
-      <c r="C41" s="36"/>
-      <c r="D41" s="15" t="s">
+      <c r="C60" s="44"/>
+      <c r="D60" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E41" s="37"/>
-      <c r="F41" s="15" t="s">
+      <c r="E60" s="45"/>
+      <c r="F60" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="G41" s="37"/>
-      <c r="H41" s="46" t="s">
+      <c r="G60" s="45"/>
+      <c r="H60" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="I41" s="37"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="20">
+      <c r="I60" s="45"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" s="20">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B42" s="20">
+      <c r="B61" s="20">
         <v>0.58333333333333304</v>
       </c>
-      <c r="C42" s="36"/>
-      <c r="D42" s="38" t="s">
+      <c r="C61" s="44"/>
+      <c r="D61" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="E61" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="F42" s="38" t="s">
+      <c r="F61" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="G42" s="38" t="s">
+      <c r="G61" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="H42" s="47"/>
-      <c r="I42" s="14"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="20">
+      <c r="H61" s="42"/>
+      <c r="I61" s="14"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" s="20">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B43" s="20">
+      <c r="B62" s="20">
         <v>0.625</v>
       </c>
-      <c r="C43" s="36"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="14" t="s">
+      <c r="C62" s="44"/>
+      <c r="D62" s="48"/>
+      <c r="E62" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="F43" s="40"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="14" t="s">
+      <c r="F62" s="48"/>
+      <c r="G62" s="47"/>
+      <c r="H62" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="I43" s="14"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="20">
+      <c r="I62" s="14"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" s="20">
         <v>0.625</v>
       </c>
-      <c r="B44" s="20">
+      <c r="B63" s="20">
         <v>0.66666666666666596</v>
       </c>
-      <c r="C44" s="37"/>
-      <c r="D44" s="38" t="s">
+      <c r="C63" s="45"/>
+      <c r="D63" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="E44" s="38" t="s">
+      <c r="E63" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="F44" s="38" t="s">
+      <c r="F63" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="G44" s="40"/>
-      <c r="H44" s="38" t="s">
+      <c r="G63" s="48"/>
+      <c r="H63" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="I44" s="14"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="20">
+      <c r="I63" s="14"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" s="20">
         <v>0.66666666666666596</v>
       </c>
-      <c r="B45" s="20">
+      <c r="B64" s="20">
         <v>0.70833333333333304</v>
       </c>
-      <c r="C45" s="38" t="s">
+      <c r="C64" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="38" t="s">
+      <c r="D64" s="47"/>
+      <c r="E64" s="47"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="H45" s="39"/>
-      <c r="I45" s="14"/>
-    </row>
-    <row r="46" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A46" s="20">
+      <c r="H64" s="47"/>
+      <c r="I64" s="14"/>
+    </row>
+    <row r="65" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="20">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B46" s="20">
+      <c r="B65" s="20">
         <v>0.75</v>
       </c>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="14" t="s">
+      <c r="C65" s="48"/>
+      <c r="D65" s="48"/>
+      <c r="E65" s="48"/>
+      <c r="F65" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="G46" s="40"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="14"/>
-    </row>
-    <row r="47" spans="1:14" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A47" s="19">
+      <c r="G65" s="48"/>
+      <c r="H65" s="48"/>
+      <c r="I65" s="14"/>
+    </row>
+    <row r="66" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A66" s="19">
         <v>0.75</v>
       </c>
-      <c r="B47" s="19">
+      <c r="B66" s="19">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="15" t="s">
+      <c r="C66" s="15"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="F47" s="15" t="s">
+      <c r="F66" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15" t="s">
+      <c r="G66" s="15"/>
+      <c r="H66" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="I47" s="15"/>
-    </row>
-    <row r="48" spans="1:14" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A48" s="22">
+      <c r="I66" s="15"/>
+    </row>
+    <row r="67" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A67" s="22">
         <v>0.79166666666666696</v>
       </c>
-      <c r="B48" s="22">
+      <c r="B67" s="22">
         <v>0.83333333333333304</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C67" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D48" s="41" t="s">
+      <c r="D67" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="E48" s="41" t="s">
+      <c r="E67" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="F48" s="17" t="s">
+      <c r="F67" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G48" s="41" t="s">
+      <c r="G67" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="H48" s="17" t="s">
+      <c r="H67" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="I48" s="17"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="22">
+      <c r="I67" s="17"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="22">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B49" s="22">
+      <c r="B68" s="22">
         <v>0.875</v>
       </c>
-      <c r="C49" s="41" t="s">
+      <c r="C68" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="41" t="s">
+      <c r="D68" s="50"/>
+      <c r="E68" s="50"/>
+      <c r="F68" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="G49" s="43"/>
-      <c r="H49" s="17" t="s">
+      <c r="G68" s="51"/>
+      <c r="H68" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="I49" s="17"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="22">
+      <c r="I68" s="17"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="22">
         <v>0.875</v>
       </c>
-      <c r="B50" s="22">
+      <c r="B69" s="22">
         <v>0.91666666666666696</v>
       </c>
-      <c r="C50" s="42"/>
-      <c r="D50" s="15" t="s">
+      <c r="C69" s="50"/>
+      <c r="D69" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E50" s="17" t="s">
+      <c r="E69" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="41" t="s">
+      <c r="F69" s="50"/>
+      <c r="G69" s="50"/>
+      <c r="H69" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="I50" s="17"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="22">
+      <c r="I69" s="17"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="22">
         <v>0.91666666666666696</v>
       </c>
-      <c r="B51" s="22">
+      <c r="B70" s="22">
         <v>0.95833333333333304</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C70" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D51" s="17" t="s">
+      <c r="D70" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E51" s="17" t="s">
+      <c r="E70" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="F51" s="17" t="s">
+      <c r="F70" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="G51" s="17" t="s">
+      <c r="G70" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="H51" s="42"/>
-      <c r="I51" s="17"/>
+      <c r="H70" s="50"/>
+      <c r="I70" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="40">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C2:C17"/>
-    <mergeCell ref="D2:D17"/>
-    <mergeCell ref="E2:E17"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F9:F12"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="E37:E41"/>
-    <mergeCell ref="G37:G41"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="C37:C44"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I37:I41"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E44:E48"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="I56:I60"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="G67:G69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="H63:H65"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="E56:E60"/>
+    <mergeCell ref="G56:G60"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="C56:C63"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C21:C36"/>
+    <mergeCell ref="D21:D36"/>
+    <mergeCell ref="E21:E36"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="F28:F31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2324,13 +2738,13 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2353,7 +2767,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
@@ -2379,40 +2793,40 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="52" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="9"/>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="53" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="53" t="s">
         <v>42</v>
       </c>
       <c r="F3" s="9"/>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="53" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="52"/>
       <c r="B4" s="9"/>
-      <c r="C4" s="49"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="49"/>
+      <c r="E4" s="54"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="49"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="52" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="10"/>
@@ -2425,20 +2839,20 @@
       </c>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="52"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="46" t="s">
         <v>39</v>
       </c>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="50" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="52" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="11"/>
@@ -2446,20 +2860,20 @@
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="51"/>
+      <c r="G7" s="55"/>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="52"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="52"/>
+      <c r="G8" s="56"/>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
@@ -2482,7 +2896,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
@@ -2508,13 +2922,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="50" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="52" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="53" t="s">
         <v>60</v>
       </c>
       <c r="E11" s="9"/>
@@ -2522,18 +2936,18 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="52"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="49"/>
+      <c r="D12" s="54"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="50" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="52" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="10"/>
@@ -2544,8 +2958,8 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="52"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -2554,8 +2968,8 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="50" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="52" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="11"/>
@@ -2566,8 +2980,8 @@
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="52"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -2576,7 +2990,7 @@
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>0</v>
       </c>
@@ -2599,7 +3013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>25</v>
       </c>
@@ -2625,13 +3039,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="50" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="52" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="53" t="s">
         <v>61</v>
       </c>
       <c r="E19" s="9"/>
@@ -2639,18 +3053,18 @@
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="52"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="49"/>
+      <c r="D20" s="54"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="50" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="52" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="10"/>
@@ -2661,8 +3075,8 @@
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="52"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -2671,8 +3085,8 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="50" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="52" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="11"/>
@@ -2683,8 +3097,8 @@
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="52"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -2693,7 +3107,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>0</v>
       </c>
@@ -2716,7 +3130,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>32</v>
       </c>
@@ -2738,8 +3152,8 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="50" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="52" t="s">
         <v>7</v>
       </c>
       <c r="B27" s="9"/>
@@ -2750,8 +3164,8 @@
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="50"/>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="52"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -2760,8 +3174,8 @@
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="50" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="52" t="s">
         <v>8</v>
       </c>
       <c r="B29" s="10"/>
@@ -2772,8 +3186,8 @@
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="50"/>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="52"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -2782,8 +3196,8 @@
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="50" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="52" t="s">
         <v>9</v>
       </c>
       <c r="B31" s="11"/>
@@ -2794,8 +3208,8 @@
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="50"/>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="52"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -2806,6 +3220,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="D11:D12"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="E3:E4"/>
@@ -2818,12 +3238,6 @@
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="D19:D20"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="D11:D12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2839,17 +3253,17 @@
       <selection sqref="A1:I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="14.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="53"/>
-      <c r="B1" s="54"/>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="57"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2872,7 +3286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="23"/>
@@ -2883,7 +3297,7 @@
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -2898,7 +3312,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>0.375</v>
       </c>
@@ -2913,7 +3327,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>0.41666666666666702</v>
       </c>
@@ -2928,7 +3342,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>0.45833333333333298</v>
       </c>
@@ -2943,7 +3357,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>0.5</v>
       </c>
@@ -2958,7 +3372,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>0.54166666666666596</v>
       </c>
@@ -2973,7 +3387,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>0.58333333333333304</v>
       </c>
@@ -2988,7 +3402,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>0.625</v>
       </c>
@@ -3003,7 +3417,7 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>0.66666666666666596</v>
       </c>
@@ -3018,7 +3432,7 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>0.70833333333333304</v>
       </c>
@@ -3033,7 +3447,7 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>0.75</v>
       </c>
@@ -3048,7 +3462,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>0.79166666666666696</v>
       </c>
@@ -3063,7 +3477,7 @@
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>0.83333333333333304</v>
       </c>
@@ -3078,7 +3492,7 @@
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>0.875</v>
       </c>
@@ -3093,7 +3507,7 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>0.91666666666666696</v>
       </c>
@@ -3126,13 +3540,13 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3155,7 +3569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
@@ -3181,8 +3595,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="52" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="9"/>
@@ -3193,8 +3607,8 @@
       <c r="G3" s="12"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="52"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -3203,8 +3617,8 @@
       <c r="G4" s="12"/>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="52" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="10"/>
@@ -3215,8 +3629,8 @@
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="52"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -3225,8 +3639,8 @@
       <c r="G6" s="13"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="50" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="52" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="11"/>
@@ -3237,8 +3651,8 @@
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="52"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -3247,7 +3661,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
@@ -3270,7 +3684,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
@@ -3296,8 +3710,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="50" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="52" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="9"/>
@@ -3308,8 +3722,8 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="52"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -3318,8 +3732,8 @@
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="50" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="52" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="10"/>
@@ -3330,8 +3744,8 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="52"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -3340,8 +3754,8 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="50" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="52" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="11"/>
@@ -3352,8 +3766,8 @@
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="52"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -3362,7 +3776,7 @@
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>0</v>
       </c>
@@ -3385,7 +3799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>25</v>
       </c>
@@ -3411,8 +3825,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="50" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="52" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="9"/>
@@ -3423,8 +3837,8 @@
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="52"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -3433,8 +3847,8 @@
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="50" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="52" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="10"/>
@@ -3445,8 +3859,8 @@
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="52"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -3455,8 +3869,8 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="50" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="52" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="11"/>
@@ -3467,8 +3881,8 @@
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="52"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -3477,7 +3891,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>0</v>
       </c>
@@ -3500,7 +3914,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>32</v>
       </c>
@@ -3522,8 +3936,8 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="50" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="52" t="s">
         <v>7</v>
       </c>
       <c r="B27" s="9"/>
@@ -3534,8 +3948,8 @@
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="50"/>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="52"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -3544,8 +3958,8 @@
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="50" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="52" t="s">
         <v>8</v>
       </c>
       <c r="B29" s="10"/>
@@ -3556,8 +3970,8 @@
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="50"/>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="52"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -3566,8 +3980,8 @@
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="50" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="52" t="s">
         <v>9</v>
       </c>
       <c r="B31" s="11"/>
@@ -3578,8 +3992,8 @@
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="50"/>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="52"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>

--- a/MyRhythm.xlsx
+++ b/MyRhythm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\labWork\NowORNever1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFBC9C7-122B-4F34-9EEA-4D25637B31DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE731E5-B602-42BD-812F-67C47767E148}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{30C03C2A-C2A3-435E-A63D-0E3D6B1ED658}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="152">
   <si>
     <t>Monday</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -568,10 +568,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>meeting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>study uygur language</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -587,6 +583,49 @@
   <si>
     <t>arrrange my day
 project ontline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>back and planning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核酸检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projects planning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eating and reading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>badminton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sleep and arrange 
+the research field</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get hair cut
+synchronize github
+research</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eating and reciting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>language learning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">collate items and reading </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -863,6 +902,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -871,58 +946,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1310,7 +1349,7 @@
   <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1330,8 +1369,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="57"/>
-      <c r="B1" s="58"/>
+      <c r="A1" s="38"/>
+      <c r="B1" s="39"/>
       <c r="C1" s="15" t="s">
         <v>6</v>
       </c>
@@ -1395,7 +1434,9 @@
       <c r="C3" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>143</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -1411,9 +1452,11 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="C4" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -1431,7 +1474,9 @@
       <c r="C5" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1449,7 +1494,9 @@
       <c r="C6" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1467,7 +1514,9 @@
       <c r="C7" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="35"/>
+      <c r="D7" s="35" t="s">
+        <v>145</v>
+      </c>
       <c r="E7" s="35"/>
       <c r="F7" s="35"/>
       <c r="G7" s="35"/>
@@ -1485,7 +1534,9 @@
       <c r="C8" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="40" t="s">
+        <v>147</v>
+      </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -1503,9 +1554,7 @@
       <c r="C9" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>138</v>
-      </c>
+      <c r="D9" s="41"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -1520,10 +1569,12 @@
       <c r="B10" s="5">
         <v>0.66666666666666596</v>
       </c>
-      <c r="C10" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="D10" s="6"/>
+      <c r="C10" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -1531,15 +1582,17 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>0.66666666666666596</v>
       </c>
       <c r="B11" s="5">
         <v>0.70833333333333304</v>
       </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="6"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="14" t="s">
+        <v>148</v>
+      </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -1557,7 +1610,9 @@
       <c r="C12" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>131</v>
+      </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -1575,7 +1630,9 @@
       <c r="C13" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="D13" s="35"/>
+      <c r="D13" s="35" t="s">
+        <v>149</v>
+      </c>
       <c r="E13" s="35"/>
       <c r="F13" s="35"/>
       <c r="G13" s="35"/>
@@ -1591,9 +1648,11 @@
         <v>0.83333333333333304</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D14" s="8"/>
+        <v>138</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -1609,9 +1668,11 @@
         <v>0.875</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>139</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>146</v>
+      </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
@@ -1619,7 +1680,7 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>0.875</v>
       </c>
@@ -1627,7 +1688,9 @@
         <v>0.91666666666666696</v>
       </c>
       <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="D16" s="14" t="s">
+        <v>137</v>
+      </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -1643,7 +1706,9 @@
         <v>0.95833333333333304</v>
       </c>
       <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="D17" s="8" t="s">
+        <v>151</v>
+      </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -1652,8 +1717,8 @@
       <c r="J17" s="8"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="38"/>
-      <c r="B20" s="39"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="15" t="s">
         <v>0</v>
       </c>
@@ -1679,9 +1744,9 @@
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="33"/>
       <c r="B21" s="34"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40" t="s">
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52" t="s">
         <v>112</v>
       </c>
       <c r="F21" s="15" t="s">
@@ -1704,10 +1769,10 @@
       <c r="B22" s="29">
         <v>0.375</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="43" t="s">
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="42" t="s">
         <v>113</v>
       </c>
       <c r="G22" s="16"/>
@@ -1721,10 +1786,10 @@
       <c r="B23" s="29">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="44"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="43"/>
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
@@ -1736,10 +1801,10 @@
       <c r="B24" s="29">
         <v>0.45833333333333298</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="45"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="44"/>
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
@@ -1751,9 +1816,9 @@
       <c r="B25" s="29">
         <v>0.5</v>
       </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
       <c r="F25" s="16" t="s">
         <v>114</v>
       </c>
@@ -1768,9 +1833,9 @@
       <c r="B26" s="30">
         <v>0.54166666666666596</v>
       </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
       <c r="F26" s="15" t="s">
         <v>115</v>
       </c>
@@ -1785,9 +1850,9 @@
       <c r="B27" s="31">
         <v>0.58333333333333304</v>
       </c>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
       <c r="F27" s="14" t="s">
         <v>116</v>
       </c>
@@ -1802,10 +1867,10 @@
       <c r="B28" s="31">
         <v>0.625</v>
       </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="46" t="s">
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="40" t="s">
         <v>117</v>
       </c>
       <c r="G28" s="14"/>
@@ -1819,10 +1884,10 @@
       <c r="B29" s="31">
         <v>0.66666666666666596</v>
       </c>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="47"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="45"/>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
@@ -1834,10 +1899,10 @@
       <c r="B30" s="31">
         <v>0.70833333333333304</v>
       </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="47"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="45"/>
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
@@ -1849,10 +1914,10 @@
       <c r="B31" s="31">
         <v>0.75</v>
       </c>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="48"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="46"/>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
@@ -1864,9 +1929,9 @@
       <c r="B32" s="30">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
       <c r="F32" s="15" t="s">
         <v>115</v>
       </c>
@@ -1881,9 +1946,9 @@
       <c r="B33" s="32">
         <v>0.83333333333333304</v>
       </c>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
       <c r="F33" s="17" t="s">
         <v>114</v>
       </c>
@@ -1898,9 +1963,9 @@
       <c r="B34" s="32">
         <v>0.875</v>
       </c>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
       <c r="F34" s="17" t="s">
         <v>120</v>
       </c>
@@ -1915,9 +1980,9 @@
       <c r="B35" s="32">
         <v>0.91666666666666696</v>
       </c>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
       <c r="F35" s="17" t="s">
         <v>121</v>
       </c>
@@ -1932,9 +1997,9 @@
       <c r="B36" s="32">
         <v>0.95833333333333304</v>
       </c>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
       <c r="F36" s="17" t="s">
         <v>119</v>
       </c>
@@ -1943,8 +2008,8 @@
       <c r="I36" s="17"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="38"/>
-      <c r="B37" s="39"/>
+      <c r="A37" s="50"/>
+      <c r="B37" s="51"/>
       <c r="C37" s="15" t="s">
         <v>6</v>
       </c>
@@ -2002,11 +2067,11 @@
       <c r="B39" s="29">
         <v>0.375</v>
       </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43" t="s">
+      <c r="C39" s="42"/>
+      <c r="D39" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="E39" s="43" t="s">
+      <c r="E39" s="42" t="s">
         <v>103</v>
       </c>
       <c r="F39" s="16"/>
@@ -2022,9 +2087,9 @@
       <c r="B40" s="29">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C40" s="45"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
       <c r="H40" s="16"/>
@@ -2045,8 +2110,8 @@
       <c r="C41" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D41" s="44"/>
-      <c r="E41" s="45"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="44"/>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
       <c r="H41" s="16"/>
@@ -2069,7 +2134,7 @@
       <c r="C42" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="D42" s="45"/>
+      <c r="D42" s="44"/>
       <c r="E42" s="16" t="s">
         <v>106</v>
       </c>
@@ -2117,10 +2182,10 @@
       <c r="C44" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="D44" s="46" t="s">
+      <c r="D44" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="E44" s="46" t="s">
+      <c r="E44" s="40" t="s">
         <v>105</v>
       </c>
       <c r="F44" s="14"/>
@@ -2143,8 +2208,8 @@
         <v>0.625</v>
       </c>
       <c r="C45" s="14"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="47"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="45"/>
       <c r="F45" s="14"/>
       <c r="G45" s="14"/>
       <c r="H45" s="14"/>
@@ -2165,10 +2230,10 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="C46" s="14"/>
-      <c r="D46" s="46" t="s">
+      <c r="D46" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="E46" s="47"/>
+      <c r="E46" s="45"/>
       <c r="F46" s="14"/>
       <c r="G46" s="14"/>
       <c r="H46" s="14"/>
@@ -2189,8 +2254,8 @@
         <v>0.70833333333333304</v>
       </c>
       <c r="C47" s="14"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
       <c r="F47" s="14"/>
       <c r="G47" s="14"/>
       <c r="H47" s="14"/>
@@ -2209,8 +2274,8 @@
         <v>0.75</v>
       </c>
       <c r="C48" s="14"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
       <c r="F48" s="14"/>
       <c r="G48" s="14"/>
       <c r="H48" s="14"/>
@@ -2253,7 +2318,7 @@
         <v>0.83333333333333304</v>
       </c>
       <c r="C50" s="17"/>
-      <c r="D50" s="49" t="s">
+      <c r="D50" s="47" t="s">
         <v>103</v>
       </c>
       <c r="E50" s="17" t="s">
@@ -2279,7 +2344,7 @@
         <v>0.875</v>
       </c>
       <c r="C51" s="17"/>
-      <c r="D51" s="50"/>
+      <c r="D51" s="48"/>
       <c r="E51" s="17" t="s">
         <v>108</v>
       </c>
@@ -2336,8 +2401,8 @@
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="38"/>
-      <c r="B55" s="39"/>
+      <c r="A55" s="50"/>
+      <c r="B55" s="51"/>
       <c r="C55" s="15" t="s">
         <v>6</v>
       </c>
@@ -2367,23 +2432,23 @@
       <c r="B56" s="18">
         <v>0.375</v>
       </c>
-      <c r="C56" s="43"/>
-      <c r="D56" s="43" t="s">
+      <c r="C56" s="42"/>
+      <c r="D56" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="E56" s="43" t="s">
+      <c r="E56" s="42" t="s">
         <v>43</v>
       </c>
       <c r="F56" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="G56" s="43" t="s">
+      <c r="G56" s="42" t="s">
         <v>43</v>
       </c>
       <c r="H56" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="I56" s="43" t="s">
+      <c r="I56" s="42" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2394,17 +2459,17 @@
       <c r="B57" s="18">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C57" s="44"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="44"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="43"/>
       <c r="F57" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="G57" s="44"/>
-      <c r="H57" s="43" t="s">
+      <c r="G57" s="43"/>
+      <c r="H57" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="I57" s="44"/>
+      <c r="I57" s="43"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="18">
@@ -2413,17 +2478,17 @@
       <c r="B58" s="18">
         <v>0.45833333333333298</v>
       </c>
-      <c r="C58" s="44"/>
+      <c r="C58" s="43"/>
       <c r="D58" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="E58" s="44"/>
-      <c r="F58" s="43" t="s">
+      <c r="E58" s="43"/>
+      <c r="F58" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="G58" s="44"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="44"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="43"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="18">
@@ -2432,17 +2497,17 @@
       <c r="B59" s="18">
         <v>0.5</v>
       </c>
-      <c r="C59" s="44"/>
+      <c r="C59" s="43"/>
       <c r="D59" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E59" s="44"/>
-      <c r="F59" s="45"/>
-      <c r="G59" s="44"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="43"/>
       <c r="H59" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="I59" s="44"/>
+      <c r="I59" s="43"/>
     </row>
     <row r="60" spans="1:14" ht="57" x14ac:dyDescent="0.2">
       <c r="A60" s="19">
@@ -2451,19 +2516,19 @@
       <c r="B60" s="19">
         <v>0.54166666666666596</v>
       </c>
-      <c r="C60" s="44"/>
+      <c r="C60" s="43"/>
       <c r="D60" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E60" s="45"/>
+      <c r="E60" s="44"/>
       <c r="F60" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="G60" s="45"/>
-      <c r="H60" s="40" t="s">
+      <c r="G60" s="44"/>
+      <c r="H60" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="I60" s="45"/>
+      <c r="I60" s="44"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="20">
@@ -2472,20 +2537,20 @@
       <c r="B61" s="20">
         <v>0.58333333333333304</v>
       </c>
-      <c r="C61" s="44"/>
-      <c r="D61" s="46" t="s">
+      <c r="C61" s="43"/>
+      <c r="D61" s="40" t="s">
         <v>63</v>
       </c>
       <c r="E61" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="F61" s="46" t="s">
+      <c r="F61" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="G61" s="46" t="s">
+      <c r="G61" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="H61" s="42"/>
+      <c r="H61" s="53"/>
       <c r="I61" s="14"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
@@ -2495,13 +2560,13 @@
       <c r="B62" s="20">
         <v>0.625</v>
       </c>
-      <c r="C62" s="44"/>
-      <c r="D62" s="48"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="46"/>
       <c r="E62" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="F62" s="48"/>
-      <c r="G62" s="47"/>
+      <c r="F62" s="46"/>
+      <c r="G62" s="45"/>
       <c r="H62" s="14" t="s">
         <v>88</v>
       </c>
@@ -2514,18 +2579,18 @@
       <c r="B63" s="20">
         <v>0.66666666666666596</v>
       </c>
-      <c r="C63" s="45"/>
-      <c r="D63" s="46" t="s">
+      <c r="C63" s="44"/>
+      <c r="D63" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="E63" s="46" t="s">
+      <c r="E63" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="F63" s="46" t="s">
+      <c r="F63" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="G63" s="48"/>
-      <c r="H63" s="46" t="s">
+      <c r="G63" s="46"/>
+      <c r="H63" s="40" t="s">
         <v>89</v>
       </c>
       <c r="I63" s="14"/>
@@ -2537,16 +2602,16 @@
       <c r="B64" s="20">
         <v>0.70833333333333304</v>
       </c>
-      <c r="C64" s="46" t="s">
+      <c r="C64" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="D64" s="47"/>
-      <c r="E64" s="47"/>
-      <c r="F64" s="48"/>
-      <c r="G64" s="46" t="s">
+      <c r="D64" s="45"/>
+      <c r="E64" s="45"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="H64" s="47"/>
+      <c r="H64" s="45"/>
       <c r="I64" s="14"/>
     </row>
     <row r="65" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -2556,14 +2621,14 @@
       <c r="B65" s="20">
         <v>0.75</v>
       </c>
-      <c r="C65" s="48"/>
-      <c r="D65" s="48"/>
-      <c r="E65" s="48"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="46"/>
+      <c r="E65" s="46"/>
       <c r="F65" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="G65" s="48"/>
-      <c r="H65" s="48"/>
+      <c r="G65" s="46"/>
+      <c r="H65" s="46"/>
       <c r="I65" s="14"/>
     </row>
     <row r="66" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
@@ -2597,16 +2662,16 @@
       <c r="C67" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D67" s="49" t="s">
+      <c r="D67" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="E67" s="49" t="s">
+      <c r="E67" s="47" t="s">
         <v>72</v>
       </c>
       <c r="F67" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G67" s="49" t="s">
+      <c r="G67" s="47" t="s">
         <v>85</v>
       </c>
       <c r="H67" s="17" t="s">
@@ -2621,15 +2686,15 @@
       <c r="B68" s="22">
         <v>0.875</v>
       </c>
-      <c r="C68" s="49" t="s">
+      <c r="C68" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="D68" s="50"/>
-      <c r="E68" s="50"/>
-      <c r="F68" s="49" t="s">
+      <c r="D68" s="48"/>
+      <c r="E68" s="48"/>
+      <c r="F68" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="G68" s="51"/>
+      <c r="G68" s="49"/>
       <c r="H68" s="17" t="s">
         <v>92</v>
       </c>
@@ -2642,16 +2707,16 @@
       <c r="B69" s="22">
         <v>0.91666666666666696</v>
       </c>
-      <c r="C69" s="50"/>
+      <c r="C69" s="48"/>
       <c r="D69" s="15" t="s">
         <v>57</v>
       </c>
       <c r="E69" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F69" s="50"/>
-      <c r="G69" s="50"/>
-      <c r="H69" s="49" t="s">
+      <c r="F69" s="48"/>
+      <c r="G69" s="48"/>
+      <c r="H69" s="47" t="s">
         <v>89</v>
       </c>
       <c r="I69" s="17"/>
@@ -2678,16 +2743,21 @@
       <c r="G70" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="H70" s="50"/>
+      <c r="H70" s="48"/>
       <c r="I70" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="E44:E48"/>
-    <mergeCell ref="H69:H70"/>
+  <mergeCells count="41">
+    <mergeCell ref="E21:E36"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="C56:C63"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C21:C36"/>
+    <mergeCell ref="D21:D36"/>
     <mergeCell ref="I56:I60"/>
     <mergeCell ref="F58:F59"/>
     <mergeCell ref="E63:E65"/>
@@ -2696,6 +2766,18 @@
     <mergeCell ref="F68:F69"/>
     <mergeCell ref="G64:G65"/>
     <mergeCell ref="G67:G69"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="H63:H65"/>
+    <mergeCell ref="E56:E60"/>
+    <mergeCell ref="G56:G60"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E44:E48"/>
+    <mergeCell ref="H69:H70"/>
     <mergeCell ref="C68:C69"/>
     <mergeCell ref="D61:D62"/>
     <mergeCell ref="D63:D65"/>
@@ -2703,26 +2785,10 @@
     <mergeCell ref="D67:D68"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="C39:C40"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="H63:H65"/>
     <mergeCell ref="A55:B55"/>
-    <mergeCell ref="E56:E60"/>
-    <mergeCell ref="G56:G60"/>
     <mergeCell ref="D56:D57"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G63"/>
-    <mergeCell ref="H57:H58"/>
     <mergeCell ref="D39:D42"/>
     <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="C56:C63"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C21:C36"/>
-    <mergeCell ref="D21:D36"/>
-    <mergeCell ref="E21:E36"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="F28:F31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2794,39 +2860,39 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="57" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="9"/>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="55" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="55" t="s">
         <v>42</v>
       </c>
       <c r="F3" s="9"/>
-      <c r="G3" s="53" t="s">
+      <c r="G3" s="55" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="9"/>
-      <c r="C4" s="54"/>
+      <c r="C4" s="56"/>
       <c r="D4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="54"/>
+      <c r="E4" s="56"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="54"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="57" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="10"/>
@@ -2840,19 +2906,19 @@
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="52"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="46" t="s">
+      <c r="G6" s="40" t="s">
         <v>39</v>
       </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="57" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="11"/>
@@ -2860,17 +2926,17 @@
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="55"/>
+      <c r="G7" s="58"/>
       <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="52"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="56"/>
+      <c r="G8" s="41"/>
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2923,12 +2989,12 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="57" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="53" t="s">
+      <c r="D11" s="55" t="s">
         <v>60</v>
       </c>
       <c r="E11" s="9"/>
@@ -2937,17 +3003,17 @@
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="52"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="54"/>
+      <c r="D12" s="56"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="57" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="10"/>
@@ -2959,7 +3025,7 @@
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="52"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -2969,7 +3035,7 @@
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="57" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="11"/>
@@ -2981,7 +3047,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="52"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -3040,12 +3106,12 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="57" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="53" t="s">
+      <c r="D19" s="55" t="s">
         <v>61</v>
       </c>
       <c r="E19" s="9"/>
@@ -3054,17 +3120,17 @@
       <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="52"/>
+      <c r="A20" s="57"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="54"/>
+      <c r="D20" s="56"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="57" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="10"/>
@@ -3076,7 +3142,7 @@
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="52"/>
+      <c r="A22" s="57"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -3086,7 +3152,7 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="57" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="11"/>
@@ -3098,7 +3164,7 @@
       <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="52"/>
+      <c r="A24" s="57"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -3153,7 +3219,7 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="57" t="s">
         <v>7</v>
       </c>
       <c r="B27" s="9"/>
@@ -3165,7 +3231,7 @@
       <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="52"/>
+      <c r="A28" s="57"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -3175,7 +3241,7 @@
       <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="52" t="s">
+      <c r="A29" s="57" t="s">
         <v>8</v>
       </c>
       <c r="B29" s="10"/>
@@ -3187,7 +3253,7 @@
       <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="52"/>
+      <c r="A30" s="57"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -3197,7 +3263,7 @@
       <c r="H30" s="10"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="52" t="s">
+      <c r="A31" s="57" t="s">
         <v>9</v>
       </c>
       <c r="B31" s="11"/>
@@ -3209,7 +3275,7 @@
       <c r="H31" s="11"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="52"/>
+      <c r="A32" s="57"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -3220,12 +3286,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="D11:D12"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="E3:E4"/>
@@ -3238,6 +3298,12 @@
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="D19:D20"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="D11:D12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3262,8 +3328,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="57"/>
-      <c r="B1" s="58"/>
+      <c r="A1" s="38"/>
+      <c r="B1" s="39"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3596,7 +3662,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="57" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="9"/>
@@ -3608,7 +3674,7 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -3618,7 +3684,7 @@
       <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="57" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="10"/>
@@ -3630,7 +3696,7 @@
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="52"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -3640,7 +3706,7 @@
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="57" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="11"/>
@@ -3652,7 +3718,7 @@
       <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="52"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -3711,7 +3777,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="57" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="9"/>
@@ -3723,7 +3789,7 @@
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="52"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -3733,7 +3799,7 @@
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="57" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="10"/>
@@ -3745,7 +3811,7 @@
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="52"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -3755,7 +3821,7 @@
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="57" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="11"/>
@@ -3767,7 +3833,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="52"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -3826,7 +3892,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="57" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="9"/>
@@ -3838,7 +3904,7 @@
       <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="52"/>
+      <c r="A20" s="57"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -3848,7 +3914,7 @@
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="57" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="10"/>
@@ -3860,7 +3926,7 @@
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="52"/>
+      <c r="A22" s="57"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -3870,7 +3936,7 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="57" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="11"/>
@@ -3882,7 +3948,7 @@
       <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="52"/>
+      <c r="A24" s="57"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -3937,7 +4003,7 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="57" t="s">
         <v>7</v>
       </c>
       <c r="B27" s="9"/>
@@ -3949,7 +4015,7 @@
       <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="52"/>
+      <c r="A28" s="57"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -3959,7 +4025,7 @@
       <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="52" t="s">
+      <c r="A29" s="57" t="s">
         <v>8</v>
       </c>
       <c r="B29" s="10"/>
@@ -3971,7 +4037,7 @@
       <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="52"/>
+      <c r="A30" s="57"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -3981,7 +4047,7 @@
       <c r="H30" s="10"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="52" t="s">
+      <c r="A31" s="57" t="s">
         <v>9</v>
       </c>
       <c r="B31" s="11"/>
@@ -3993,7 +4059,7 @@
       <c r="H31" s="11"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="52"/>
+      <c r="A32" s="57"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>

--- a/MyRhythm.xlsx
+++ b/MyRhythm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\labWork\NowORNever1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE731E5-B602-42BD-812F-67C47767E148}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10701983-0270-4C2A-8352-C99CB426B416}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{30C03C2A-C2A3-435E-A63D-0E3D6B1ED658}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="161">
   <si>
     <t>Monday</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -626,6 +626,43 @@
   </si>
   <si>
     <t xml:space="preserve">collate items and reading </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>running</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search dataset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>literature reading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eating and relax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sleeping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exercise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reading and poetry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>close your phone please</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>language learning
+and preparation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -901,64 +938,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1349,7 +1386,7 @@
   <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1369,8 +1406,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="38"/>
-      <c r="B1" s="39"/>
+      <c r="A1" s="53"/>
+      <c r="B1" s="54"/>
       <c r="C1" s="15" t="s">
         <v>6</v>
       </c>
@@ -1437,7 +1474,9 @@
       <c r="D3" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -1457,7 +1496,9 @@
       <c r="D4" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>154</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -1477,7 +1518,9 @@
       <c r="D5" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>154</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -1497,7 +1540,9 @@
       <c r="D6" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -1517,7 +1562,9 @@
       <c r="D7" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="E7" s="35"/>
+      <c r="E7" s="35" t="s">
+        <v>155</v>
+      </c>
       <c r="F7" s="35"/>
       <c r="G7" s="35"/>
       <c r="H7" s="35"/>
@@ -1534,10 +1581,12 @@
       <c r="C8" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>156</v>
+      </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -1554,8 +1603,10 @@
       <c r="C9" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="6"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -1569,13 +1620,15 @@
       <c r="B10" s="5">
         <v>0.66666666666666596</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="44" t="s">
         <v>140</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -1589,11 +1642,13 @@
       <c r="B11" s="5">
         <v>0.70833333333333304</v>
       </c>
-      <c r="C11" s="41"/>
+      <c r="C11" s="47"/>
       <c r="D11" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>154</v>
+      </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -1613,7 +1668,9 @@
       <c r="D12" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -1653,7 +1710,9 @@
       <c r="D14" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="E14" s="8"/>
+      <c r="E14" s="8" t="s">
+        <v>158</v>
+      </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -1673,7 +1732,9 @@
       <c r="D15" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E15" s="8"/>
+      <c r="E15" s="8" t="s">
+        <v>157</v>
+      </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
@@ -1691,7 +1752,9 @@
       <c r="D16" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="E16" s="8"/>
+      <c r="E16" s="17" t="s">
+        <v>160</v>
+      </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -1709,13 +1772,20 @@
       <c r="D17" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="E17" s="8"/>
+      <c r="E17" s="8" t="s">
+        <v>154</v>
+      </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
     </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E18" s="28" t="s">
+        <v>159</v>
+      </c>
+    </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="50"/>
       <c r="B20" s="51"/>
@@ -1744,9 +1814,9 @@
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="33"/>
       <c r="B21" s="34"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52" t="s">
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38" t="s">
         <v>112</v>
       </c>
       <c r="F21" s="15" t="s">
@@ -1769,10 +1839,10 @@
       <c r="B22" s="29">
         <v>0.375</v>
       </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="42" t="s">
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="41" t="s">
         <v>113</v>
       </c>
       <c r="G22" s="16"/>
@@ -1786,10 +1856,10 @@
       <c r="B23" s="29">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="43"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="42"/>
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
@@ -1801,10 +1871,10 @@
       <c r="B24" s="29">
         <v>0.45833333333333298</v>
       </c>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="44"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="43"/>
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
@@ -1816,9 +1886,9 @@
       <c r="B25" s="29">
         <v>0.5</v>
       </c>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
       <c r="F25" s="16" t="s">
         <v>114</v>
       </c>
@@ -1833,9 +1903,9 @@
       <c r="B26" s="30">
         <v>0.54166666666666596</v>
       </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
       <c r="F26" s="15" t="s">
         <v>115</v>
       </c>
@@ -1850,9 +1920,9 @@
       <c r="B27" s="31">
         <v>0.58333333333333304</v>
       </c>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
       <c r="F27" s="14" t="s">
         <v>116</v>
       </c>
@@ -1867,10 +1937,10 @@
       <c r="B28" s="31">
         <v>0.625</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="40" t="s">
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="44" t="s">
         <v>117</v>
       </c>
       <c r="G28" s="14"/>
@@ -1884,9 +1954,9 @@
       <c r="B29" s="31">
         <v>0.66666666666666596</v>
       </c>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
       <c r="F29" s="45"/>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
@@ -1899,9 +1969,9 @@
       <c r="B30" s="31">
         <v>0.70833333333333304</v>
       </c>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
       <c r="F30" s="45"/>
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
@@ -1914,9 +1984,9 @@
       <c r="B31" s="31">
         <v>0.75</v>
       </c>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
       <c r="F31" s="46"/>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
@@ -1929,9 +1999,9 @@
       <c r="B32" s="30">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
       <c r="F32" s="15" t="s">
         <v>115</v>
       </c>
@@ -1946,9 +2016,9 @@
       <c r="B33" s="32">
         <v>0.83333333333333304</v>
       </c>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
       <c r="F33" s="17" t="s">
         <v>114</v>
       </c>
@@ -1963,9 +2033,9 @@
       <c r="B34" s="32">
         <v>0.875</v>
       </c>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
       <c r="F34" s="17" t="s">
         <v>120</v>
       </c>
@@ -1980,9 +2050,9 @@
       <c r="B35" s="32">
         <v>0.91666666666666696</v>
       </c>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
       <c r="F35" s="17" t="s">
         <v>121</v>
       </c>
@@ -1997,9 +2067,9 @@
       <c r="B36" s="32">
         <v>0.95833333333333304</v>
       </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
       <c r="F36" s="17" t="s">
         <v>119</v>
       </c>
@@ -2067,11 +2137,11 @@
       <c r="B39" s="29">
         <v>0.375</v>
       </c>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42" t="s">
+      <c r="C39" s="41"/>
+      <c r="D39" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="E39" s="42" t="s">
+      <c r="E39" s="41" t="s">
         <v>103</v>
       </c>
       <c r="F39" s="16"/>
@@ -2087,9 +2157,9 @@
       <c r="B40" s="29">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C40" s="44"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
       <c r="H40" s="16"/>
@@ -2110,8 +2180,8 @@
       <c r="C41" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D41" s="43"/>
-      <c r="E41" s="44"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="43"/>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
       <c r="H41" s="16"/>
@@ -2134,7 +2204,7 @@
       <c r="C42" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="D42" s="44"/>
+      <c r="D42" s="43"/>
       <c r="E42" s="16" t="s">
         <v>106</v>
       </c>
@@ -2182,10 +2252,10 @@
       <c r="C44" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="D44" s="40" t="s">
+      <c r="D44" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="E44" s="40" t="s">
+      <c r="E44" s="44" t="s">
         <v>105</v>
       </c>
       <c r="F44" s="14"/>
@@ -2230,7 +2300,7 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="C46" s="14"/>
-      <c r="D46" s="40" t="s">
+      <c r="D46" s="44" t="s">
         <v>103</v>
       </c>
       <c r="E46" s="45"/>
@@ -2318,7 +2388,7 @@
         <v>0.83333333333333304</v>
       </c>
       <c r="C50" s="17"/>
-      <c r="D50" s="47" t="s">
+      <c r="D50" s="48" t="s">
         <v>103</v>
       </c>
       <c r="E50" s="17" t="s">
@@ -2344,7 +2414,7 @@
         <v>0.875</v>
       </c>
       <c r="C51" s="17"/>
-      <c r="D51" s="48"/>
+      <c r="D51" s="49"/>
       <c r="E51" s="17" t="s">
         <v>108</v>
       </c>
@@ -2432,23 +2502,23 @@
       <c r="B56" s="18">
         <v>0.375</v>
       </c>
-      <c r="C56" s="42"/>
-      <c r="D56" s="42" t="s">
+      <c r="C56" s="41"/>
+      <c r="D56" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="E56" s="42" t="s">
+      <c r="E56" s="41" t="s">
         <v>43</v>
       </c>
       <c r="F56" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="G56" s="42" t="s">
+      <c r="G56" s="41" t="s">
         <v>43</v>
       </c>
       <c r="H56" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="I56" s="42" t="s">
+      <c r="I56" s="41" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2459,17 +2529,17 @@
       <c r="B57" s="18">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C57" s="43"/>
-      <c r="D57" s="44"/>
-      <c r="E57" s="43"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="42"/>
       <c r="F57" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="G57" s="43"/>
-      <c r="H57" s="42" t="s">
+      <c r="G57" s="42"/>
+      <c r="H57" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="I57" s="43"/>
+      <c r="I57" s="42"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="18">
@@ -2478,17 +2548,17 @@
       <c r="B58" s="18">
         <v>0.45833333333333298</v>
       </c>
-      <c r="C58" s="43"/>
+      <c r="C58" s="42"/>
       <c r="D58" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="E58" s="43"/>
-      <c r="F58" s="42" t="s">
+      <c r="E58" s="42"/>
+      <c r="F58" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="G58" s="43"/>
-      <c r="H58" s="44"/>
-      <c r="I58" s="43"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="42"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="18">
@@ -2497,17 +2567,17 @@
       <c r="B59" s="18">
         <v>0.5</v>
       </c>
-      <c r="C59" s="43"/>
+      <c r="C59" s="42"/>
       <c r="D59" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E59" s="43"/>
-      <c r="F59" s="44"/>
-      <c r="G59" s="43"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="42"/>
       <c r="H59" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="I59" s="43"/>
+      <c r="I59" s="42"/>
     </row>
     <row r="60" spans="1:14" ht="57" x14ac:dyDescent="0.2">
       <c r="A60" s="19">
@@ -2516,19 +2586,19 @@
       <c r="B60" s="19">
         <v>0.54166666666666596</v>
       </c>
-      <c r="C60" s="43"/>
+      <c r="C60" s="42"/>
       <c r="D60" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E60" s="44"/>
+      <c r="E60" s="43"/>
       <c r="F60" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="G60" s="44"/>
-      <c r="H60" s="52" t="s">
+      <c r="G60" s="43"/>
+      <c r="H60" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="I60" s="44"/>
+      <c r="I60" s="43"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="20">
@@ -2537,20 +2607,20 @@
       <c r="B61" s="20">
         <v>0.58333333333333304</v>
       </c>
-      <c r="C61" s="43"/>
-      <c r="D61" s="40" t="s">
+      <c r="C61" s="42"/>
+      <c r="D61" s="44" t="s">
         <v>63</v>
       </c>
       <c r="E61" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="F61" s="40" t="s">
+      <c r="F61" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="G61" s="40" t="s">
+      <c r="G61" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="H61" s="53"/>
+      <c r="H61" s="40"/>
       <c r="I61" s="14"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
@@ -2560,7 +2630,7 @@
       <c r="B62" s="20">
         <v>0.625</v>
       </c>
-      <c r="C62" s="43"/>
+      <c r="C62" s="42"/>
       <c r="D62" s="46"/>
       <c r="E62" s="14" t="s">
         <v>68</v>
@@ -2579,18 +2649,18 @@
       <c r="B63" s="20">
         <v>0.66666666666666596</v>
       </c>
-      <c r="C63" s="44"/>
-      <c r="D63" s="40" t="s">
+      <c r="C63" s="43"/>
+      <c r="D63" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="E63" s="40" t="s">
+      <c r="E63" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="F63" s="40" t="s">
+      <c r="F63" s="44" t="s">
         <v>78</v>
       </c>
       <c r="G63" s="46"/>
-      <c r="H63" s="40" t="s">
+      <c r="H63" s="44" t="s">
         <v>89</v>
       </c>
       <c r="I63" s="14"/>
@@ -2602,13 +2672,13 @@
       <c r="B64" s="20">
         <v>0.70833333333333304</v>
       </c>
-      <c r="C64" s="40" t="s">
+      <c r="C64" s="44" t="s">
         <v>54</v>
       </c>
       <c r="D64" s="45"/>
       <c r="E64" s="45"/>
       <c r="F64" s="46"/>
-      <c r="G64" s="40" t="s">
+      <c r="G64" s="44" t="s">
         <v>83</v>
       </c>
       <c r="H64" s="45"/>
@@ -2662,16 +2732,16 @@
       <c r="C67" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D67" s="47" t="s">
+      <c r="D67" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="E67" s="47" t="s">
+      <c r="E67" s="48" t="s">
         <v>72</v>
       </c>
       <c r="F67" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G67" s="47" t="s">
+      <c r="G67" s="48" t="s">
         <v>85</v>
       </c>
       <c r="H67" s="17" t="s">
@@ -2686,15 +2756,15 @@
       <c r="B68" s="22">
         <v>0.875</v>
       </c>
-      <c r="C68" s="47" t="s">
+      <c r="C68" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="D68" s="48"/>
-      <c r="E68" s="48"/>
-      <c r="F68" s="47" t="s">
+      <c r="D68" s="49"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="G68" s="49"/>
+      <c r="G68" s="52"/>
       <c r="H68" s="17" t="s">
         <v>92</v>
       </c>
@@ -2707,16 +2777,16 @@
       <c r="B69" s="22">
         <v>0.91666666666666696</v>
       </c>
-      <c r="C69" s="48"/>
+      <c r="C69" s="49"/>
       <c r="D69" s="15" t="s">
         <v>57</v>
       </c>
       <c r="E69" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F69" s="48"/>
-      <c r="G69" s="48"/>
-      <c r="H69" s="47" t="s">
+      <c r="F69" s="49"/>
+      <c r="G69" s="49"/>
+      <c r="H69" s="48" t="s">
         <v>89</v>
       </c>
       <c r="I69" s="17"/>
@@ -2743,36 +2813,11 @@
       <c r="G70" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="H70" s="48"/>
+      <c r="H70" s="49"/>
       <c r="I70" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="E21:E36"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="C56:C63"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C21:C36"/>
-    <mergeCell ref="D21:D36"/>
-    <mergeCell ref="I56:I60"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="G67:G69"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="H63:H65"/>
-    <mergeCell ref="E56:E60"/>
-    <mergeCell ref="G56:G60"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G63"/>
-    <mergeCell ref="H57:H58"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="E39:E41"/>
@@ -2789,6 +2834,31 @@
     <mergeCell ref="D56:D57"/>
     <mergeCell ref="D39:D42"/>
     <mergeCell ref="D44:D45"/>
+    <mergeCell ref="I56:I60"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="G67:G69"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="H63:H65"/>
+    <mergeCell ref="E56:E60"/>
+    <mergeCell ref="G56:G60"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="C56:C63"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C21:C36"/>
+    <mergeCell ref="D21:D36"/>
+    <mergeCell ref="E21:E36"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D46:D48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2860,39 +2930,39 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="55" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="9"/>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="56" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="56" t="s">
         <v>42</v>
       </c>
       <c r="F3" s="9"/>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="56" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="57"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="9"/>
-      <c r="C4" s="56"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="56"/>
+      <c r="E4" s="57"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="56"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="55" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="10"/>
@@ -2906,19 +2976,19 @@
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="57"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="44" t="s">
         <v>39</v>
       </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="55" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="11"/>
@@ -2930,13 +3000,13 @@
       <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="57"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="41"/>
+      <c r="G8" s="47"/>
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2989,12 +3059,12 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="55" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="56" t="s">
         <v>60</v>
       </c>
       <c r="E11" s="9"/>
@@ -3003,17 +3073,17 @@
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="57"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="56"/>
+      <c r="D12" s="57"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="55" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="10"/>
@@ -3025,7 +3095,7 @@
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="57"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -3035,7 +3105,7 @@
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="55" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="11"/>
@@ -3047,7 +3117,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="57"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -3106,12 +3176,12 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="55" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="55" t="s">
+      <c r="D19" s="56" t="s">
         <v>61</v>
       </c>
       <c r="E19" s="9"/>
@@ -3120,17 +3190,17 @@
       <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="57"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="56"/>
+      <c r="D20" s="57"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="55" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="10"/>
@@ -3142,7 +3212,7 @@
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="57"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -3152,7 +3222,7 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="55" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="11"/>
@@ -3164,7 +3234,7 @@
       <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="57"/>
+      <c r="A24" s="55"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -3219,7 +3289,7 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="57" t="s">
+      <c r="A27" s="55" t="s">
         <v>7</v>
       </c>
       <c r="B27" s="9"/>
@@ -3231,7 +3301,7 @@
       <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="57"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -3241,7 +3311,7 @@
       <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="55" t="s">
         <v>8</v>
       </c>
       <c r="B29" s="10"/>
@@ -3253,7 +3323,7 @@
       <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="57"/>
+      <c r="A30" s="55"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -3263,7 +3333,7 @@
       <c r="H30" s="10"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="57" t="s">
+      <c r="A31" s="55" t="s">
         <v>9</v>
       </c>
       <c r="B31" s="11"/>
@@ -3275,7 +3345,7 @@
       <c r="H31" s="11"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="57"/>
+      <c r="A32" s="55"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -3286,6 +3356,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="D11:D12"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="E3:E4"/>
@@ -3298,12 +3374,6 @@
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="D19:D20"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="D11:D12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3328,8 +3398,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="38"/>
-      <c r="B1" s="39"/>
+      <c r="A1" s="53"/>
+      <c r="B1" s="54"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3662,7 +3732,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="55" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="9"/>
@@ -3674,7 +3744,7 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="57"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -3684,7 +3754,7 @@
       <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="55" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="10"/>
@@ -3696,7 +3766,7 @@
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="57"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -3706,7 +3776,7 @@
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="55" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="11"/>
@@ -3718,7 +3788,7 @@
       <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="57"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -3777,7 +3847,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="55" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="9"/>
@@ -3789,7 +3859,7 @@
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="57"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -3799,7 +3869,7 @@
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="55" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="10"/>
@@ -3811,7 +3881,7 @@
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="57"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -3821,7 +3891,7 @@
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="55" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="11"/>
@@ -3833,7 +3903,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="57"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
@@ -3892,7 +3962,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="55" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="9"/>
@@ -3904,7 +3974,7 @@
       <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="57"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -3914,7 +3984,7 @@
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="55" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="10"/>
@@ -3926,7 +3996,7 @@
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="57"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -3936,7 +4006,7 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="55" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="11"/>
@@ -3948,7 +4018,7 @@
       <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="57"/>
+      <c r="A24" s="55"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -4003,7 +4073,7 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="57" t="s">
+      <c r="A27" s="55" t="s">
         <v>7</v>
       </c>
       <c r="B27" s="9"/>
@@ -4015,7 +4085,7 @@
       <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="57"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -4025,7 +4095,7 @@
       <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="55" t="s">
         <v>8</v>
       </c>
       <c r="B29" s="10"/>
@@ -4037,7 +4107,7 @@
       <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="57"/>
+      <c r="A30" s="55"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -4047,7 +4117,7 @@
       <c r="H30" s="10"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="57" t="s">
+      <c r="A31" s="55" t="s">
         <v>9</v>
       </c>
       <c r="B31" s="11"/>
@@ -4059,7 +4129,7 @@
       <c r="H31" s="11"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="57"/>
+      <c r="A32" s="55"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
